--- a/development/SRAO-ontology-configuration-OLS.xlsx
+++ b/development/SRAO-ontology-configuration-OLS.xlsx
@@ -40,34 +40,7 @@
     <t xml:space="preserve">creator</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">The FAIRsharing Team, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">contact@fairsharing.or</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">g</t>
-    </r>
+    <t xml:space="preserve">The FAIRsharing Team, contact@fairsharing.org</t>
   </si>
   <si>
     <t xml:space="preserve">The list of creators of the ontology</t>
@@ -178,7 +151,7 @@
     <t xml:space="preserve">synonym_property</t>
   </si>
   <si>
-    <t xml:space="preserve">http://purl.obolibrary.org/obo/IAO_0000118; http://www.fairsharing.org/ontology/SRAO_0000279; http://www.fairsharing.org/ontology/SRAO_0000278; http://www.fairsharing.org/ontology/SRAO_0000269; http://www.fairsharing.org/ontology/DRAO_0000001; http://www.fairsharing.org/ontology/SRAO_0000276; http://www.fairsharing.org/ontology/SRAO_0000317; http://www.fairsharing.org/ontology/SRAO_0000272; http://www.fairsharing.org/ontology/SRAO_0000292; http://www.fairsharing.org/ontology/SRAO_0000268</t>
+    <t xml:space="preserve">http://purl.obolibrary.org/obo/IAO_0000118; http://www.fairsharing.org/ontology/subject/SRAO_0000279; http://www.fairsharing.org/ontology/subject/SRAO_0000278; http://www.fairsharing.org/ontology/subject/SRAO_0000269; http://www.fairsharing.org/ontology/domain/DRAO_0000001; http://www.fairsharing.org/ontology/subject/SRAO_0000276; http://www.fairsharing.org/ontology/subject/SRAO_0000317; http://www.fairsharing.org/ontology/subject/SRAO_0000272; http://www.fairsharing.org/ontology/subject/SRAO_0000292; http://www.fairsharing.org/ontology/subject/SRAO_0000268</t>
   </si>
   <si>
     <t xml:space="preserve">The list of URIs of properties that are used in your ontology to define that a term is a synonym for another term. </t>
@@ -249,7 +222,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -298,12 +271,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -354,7 +321,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -383,6 +350,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -391,20 +362,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -439,15 +398,15 @@
   <dimension ref="A1:E1001"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="44.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="57.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="96.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="59.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="59.4"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -471,10 +430,10 @@
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -488,11 +447,11 @@
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -509,7 +468,7 @@
       <c r="B4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -521,10 +480,10 @@
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -538,10 +497,10 @@
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -556,7 +515,7 @@
       <c r="B7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -573,7 +532,7 @@
       <c r="B8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -587,10 +546,10 @@
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -602,10 +561,10 @@
       <c r="A10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -619,16 +578,16 @@
       <c r="A11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>38</v>
       </c>
     </row>
@@ -639,13 +598,13 @@
       <c r="B12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>45</v>
       </c>
     </row>
@@ -654,7 +613,7 @@
         <v>46</v>
       </c>
       <c r="B13" s="6"/>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -667,7 +626,7 @@
         <v>48</v>
       </c>
       <c r="B14" s="6"/>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>49</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -679,16 +638,16 @@
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>52</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -699,7 +658,7 @@
       <c r="B16" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="8" t="s">
         <v>56</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -713,24 +672,24 @@
       <c r="A17" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="8" t="n">
+      <c r="B17" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="13"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="8" t="s">
         <v>62</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -741,3944 +700,3945 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C19" s="14"/>
-      <c r="E19" s="15"/>
+      <c r="C19" s="12"/>
+      <c r="E19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C20" s="14"/>
-      <c r="E20" s="15"/>
+      <c r="C20" s="12"/>
+      <c r="E20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C21" s="14"/>
-      <c r="E21" s="15"/>
+      <c r="C21" s="12"/>
+      <c r="E21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C22" s="14"/>
-      <c r="E22" s="15"/>
+      <c r="C22" s="12"/>
+      <c r="E22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C23" s="14"/>
-      <c r="E23" s="15"/>
+      <c r="C23" s="12"/>
+      <c r="E23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C24" s="14"/>
-      <c r="E24" s="15"/>
+      <c r="C24" s="12"/>
+      <c r="E24" s="13"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C25" s="14"/>
-      <c r="E25" s="15"/>
+      <c r="C25" s="12"/>
+      <c r="E25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C26" s="14"/>
-      <c r="E26" s="15"/>
+      <c r="C26" s="12"/>
+      <c r="E26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C27" s="14"/>
-      <c r="E27" s="15"/>
+      <c r="C27" s="12"/>
+      <c r="E27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C28" s="14"/>
-      <c r="E28" s="15"/>
+      <c r="C28" s="12"/>
+      <c r="E28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C29" s="14"/>
-      <c r="E29" s="15"/>
+      <c r="C29" s="12"/>
+      <c r="E29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C30" s="14"/>
-      <c r="E30" s="15"/>
+      <c r="C30" s="12"/>
+      <c r="E30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C31" s="14"/>
-      <c r="E31" s="15"/>
+      <c r="C31" s="12"/>
+      <c r="E31" s="13"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C32" s="14"/>
-      <c r="E32" s="15"/>
+      <c r="C32" s="12"/>
+      <c r="E32" s="13"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C33" s="14"/>
-      <c r="E33" s="15"/>
+      <c r="C33" s="12"/>
+      <c r="E33" s="13"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C34" s="14"/>
-      <c r="E34" s="15"/>
+      <c r="C34" s="12"/>
+      <c r="E34" s="13"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C35" s="14"/>
-      <c r="E35" s="15"/>
+      <c r="C35" s="12"/>
+      <c r="E35" s="13"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="14"/>
-      <c r="E36" s="15"/>
+      <c r="C36" s="12"/>
+      <c r="E36" s="13"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="14"/>
-      <c r="E37" s="15"/>
+      <c r="C37" s="12"/>
+      <c r="E37" s="13"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="14"/>
-      <c r="E38" s="15"/>
+      <c r="C38" s="12"/>
+      <c r="E38" s="13"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="14"/>
-      <c r="E39" s="15"/>
+      <c r="C39" s="12"/>
+      <c r="E39" s="13"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="14"/>
-      <c r="E40" s="15"/>
+      <c r="C40" s="12"/>
+      <c r="E40" s="13"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="14"/>
-      <c r="E41" s="15"/>
+      <c r="C41" s="12"/>
+      <c r="E41" s="13"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="14"/>
-      <c r="E42" s="15"/>
+      <c r="C42" s="12"/>
+      <c r="E42" s="13"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="14"/>
-      <c r="E43" s="15"/>
+      <c r="C43" s="12"/>
+      <c r="E43" s="13"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="14"/>
-      <c r="E44" s="15"/>
+      <c r="C44" s="12"/>
+      <c r="E44" s="13"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="14"/>
-      <c r="E45" s="15"/>
+      <c r="C45" s="12"/>
+      <c r="E45" s="13"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="14"/>
-      <c r="E46" s="15"/>
+      <c r="C46" s="12"/>
+      <c r="E46" s="13"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="14"/>
-      <c r="E47" s="15"/>
+      <c r="C47" s="12"/>
+      <c r="E47" s="13"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="14"/>
-      <c r="E48" s="15"/>
+      <c r="C48" s="12"/>
+      <c r="E48" s="13"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="14"/>
-      <c r="E49" s="15"/>
+      <c r="C49" s="12"/>
+      <c r="E49" s="13"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="14"/>
-      <c r="E50" s="15"/>
+      <c r="C50" s="12"/>
+      <c r="E50" s="13"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="14"/>
-      <c r="E51" s="15"/>
+      <c r="C51" s="12"/>
+      <c r="E51" s="13"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="14"/>
-      <c r="E52" s="15"/>
+      <c r="C52" s="12"/>
+      <c r="E52" s="13"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="14"/>
-      <c r="E53" s="15"/>
+      <c r="C53" s="12"/>
+      <c r="E53" s="13"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="14"/>
-      <c r="E54" s="15"/>
+      <c r="C54" s="12"/>
+      <c r="E54" s="13"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="14"/>
-      <c r="E55" s="15"/>
+      <c r="C55" s="12"/>
+      <c r="E55" s="13"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="14"/>
-      <c r="E56" s="15"/>
+      <c r="C56" s="12"/>
+      <c r="E56" s="13"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="14"/>
-      <c r="E57" s="15"/>
+      <c r="C57" s="12"/>
+      <c r="E57" s="13"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="14"/>
-      <c r="E58" s="15"/>
+      <c r="C58" s="12"/>
+      <c r="E58" s="13"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="14"/>
-      <c r="E59" s="15"/>
+      <c r="C59" s="12"/>
+      <c r="E59" s="13"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="14"/>
-      <c r="E60" s="15"/>
+      <c r="C60" s="12"/>
+      <c r="E60" s="13"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="14"/>
-      <c r="E61" s="15"/>
+      <c r="C61" s="12"/>
+      <c r="E61" s="13"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="14"/>
-      <c r="E62" s="15"/>
+      <c r="C62" s="12"/>
+      <c r="E62" s="13"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="14"/>
-      <c r="E63" s="15"/>
+      <c r="C63" s="12"/>
+      <c r="E63" s="13"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="14"/>
-      <c r="E64" s="15"/>
+      <c r="C64" s="12"/>
+      <c r="E64" s="13"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="14"/>
-      <c r="E65" s="15"/>
+      <c r="C65" s="12"/>
+      <c r="E65" s="13"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="14"/>
-      <c r="E66" s="15"/>
+      <c r="C66" s="12"/>
+      <c r="E66" s="13"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="14"/>
-      <c r="E67" s="15"/>
+      <c r="C67" s="12"/>
+      <c r="E67" s="13"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="14"/>
-      <c r="E68" s="15"/>
+      <c r="C68" s="12"/>
+      <c r="E68" s="13"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="14"/>
-      <c r="E69" s="15"/>
+      <c r="C69" s="12"/>
+      <c r="E69" s="13"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="14"/>
-      <c r="E70" s="15"/>
+      <c r="C70" s="12"/>
+      <c r="E70" s="13"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C71" s="14"/>
-      <c r="E71" s="15"/>
+      <c r="C71" s="12"/>
+      <c r="E71" s="13"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C72" s="14"/>
-      <c r="E72" s="15"/>
+      <c r="C72" s="12"/>
+      <c r="E72" s="13"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C73" s="14"/>
-      <c r="E73" s="15"/>
+      <c r="C73" s="12"/>
+      <c r="E73" s="13"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C74" s="14"/>
-      <c r="E74" s="15"/>
+      <c r="C74" s="12"/>
+      <c r="E74" s="13"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C75" s="14"/>
-      <c r="E75" s="15"/>
+      <c r="C75" s="12"/>
+      <c r="E75" s="13"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C76" s="14"/>
-      <c r="E76" s="15"/>
+      <c r="C76" s="12"/>
+      <c r="E76" s="13"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C77" s="14"/>
-      <c r="E77" s="15"/>
+      <c r="C77" s="12"/>
+      <c r="E77" s="13"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C78" s="14"/>
-      <c r="E78" s="15"/>
+      <c r="C78" s="12"/>
+      <c r="E78" s="13"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C79" s="14"/>
-      <c r="E79" s="15"/>
+      <c r="C79" s="12"/>
+      <c r="E79" s="13"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C80" s="14"/>
-      <c r="E80" s="15"/>
+      <c r="C80" s="12"/>
+      <c r="E80" s="13"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C81" s="14"/>
-      <c r="E81" s="15"/>
+      <c r="C81" s="12"/>
+      <c r="E81" s="13"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C82" s="14"/>
-      <c r="E82" s="15"/>
+      <c r="C82" s="12"/>
+      <c r="E82" s="13"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C83" s="14"/>
-      <c r="E83" s="15"/>
+      <c r="C83" s="12"/>
+      <c r="E83" s="13"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C84" s="14"/>
-      <c r="E84" s="15"/>
+      <c r="C84" s="12"/>
+      <c r="E84" s="13"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C85" s="14"/>
-      <c r="E85" s="15"/>
+      <c r="C85" s="12"/>
+      <c r="E85" s="13"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C86" s="14"/>
-      <c r="E86" s="15"/>
+      <c r="C86" s="12"/>
+      <c r="E86" s="13"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C87" s="14"/>
-      <c r="E87" s="15"/>
+      <c r="C87" s="12"/>
+      <c r="E87" s="13"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C88" s="14"/>
-      <c r="E88" s="15"/>
+      <c r="C88" s="12"/>
+      <c r="E88" s="13"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C89" s="14"/>
-      <c r="E89" s="15"/>
+      <c r="C89" s="12"/>
+      <c r="E89" s="13"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C90" s="14"/>
-      <c r="E90" s="15"/>
+      <c r="C90" s="12"/>
+      <c r="E90" s="13"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C91" s="14"/>
-      <c r="E91" s="15"/>
+      <c r="C91" s="12"/>
+      <c r="E91" s="13"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C92" s="14"/>
-      <c r="E92" s="15"/>
+      <c r="C92" s="12"/>
+      <c r="E92" s="13"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C93" s="14"/>
-      <c r="E93" s="15"/>
+      <c r="C93" s="12"/>
+      <c r="E93" s="13"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C94" s="14"/>
-      <c r="E94" s="15"/>
+      <c r="C94" s="12"/>
+      <c r="E94" s="13"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C95" s="14"/>
-      <c r="E95" s="15"/>
+      <c r="C95" s="12"/>
+      <c r="E95" s="13"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C96" s="14"/>
-      <c r="E96" s="15"/>
+      <c r="C96" s="12"/>
+      <c r="E96" s="13"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C97" s="14"/>
-      <c r="E97" s="15"/>
+      <c r="C97" s="12"/>
+      <c r="E97" s="13"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C98" s="14"/>
-      <c r="E98" s="15"/>
+      <c r="C98" s="12"/>
+      <c r="E98" s="13"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C99" s="14"/>
-      <c r="E99" s="15"/>
+      <c r="C99" s="12"/>
+      <c r="E99" s="13"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C100" s="14"/>
-      <c r="E100" s="15"/>
+      <c r="C100" s="12"/>
+      <c r="E100" s="13"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C101" s="14"/>
-      <c r="E101" s="15"/>
+      <c r="C101" s="12"/>
+      <c r="E101" s="13"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C102" s="14"/>
-      <c r="E102" s="15"/>
+      <c r="C102" s="12"/>
+      <c r="E102" s="13"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C103" s="14"/>
-      <c r="E103" s="15"/>
+      <c r="C103" s="12"/>
+      <c r="E103" s="13"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C104" s="14"/>
-      <c r="E104" s="15"/>
+      <c r="C104" s="12"/>
+      <c r="E104" s="13"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C105" s="14"/>
-      <c r="E105" s="15"/>
+      <c r="C105" s="12"/>
+      <c r="E105" s="13"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C106" s="14"/>
-      <c r="E106" s="15"/>
+      <c r="C106" s="12"/>
+      <c r="E106" s="13"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C107" s="14"/>
-      <c r="E107" s="15"/>
+      <c r="C107" s="12"/>
+      <c r="E107" s="13"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C108" s="14"/>
-      <c r="E108" s="15"/>
+      <c r="C108" s="12"/>
+      <c r="E108" s="13"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C109" s="14"/>
-      <c r="E109" s="15"/>
+      <c r="C109" s="12"/>
+      <c r="E109" s="13"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C110" s="14"/>
-      <c r="E110" s="15"/>
+      <c r="C110" s="12"/>
+      <c r="E110" s="13"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C111" s="14"/>
-      <c r="E111" s="15"/>
+      <c r="C111" s="12"/>
+      <c r="E111" s="13"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C112" s="14"/>
-      <c r="E112" s="15"/>
+      <c r="C112" s="12"/>
+      <c r="E112" s="13"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C113" s="14"/>
-      <c r="E113" s="15"/>
+      <c r="C113" s="12"/>
+      <c r="E113" s="13"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C114" s="14"/>
-      <c r="E114" s="15"/>
+      <c r="C114" s="12"/>
+      <c r="E114" s="13"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C115" s="14"/>
-      <c r="E115" s="15"/>
+      <c r="C115" s="12"/>
+      <c r="E115" s="13"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C116" s="14"/>
-      <c r="E116" s="15"/>
+      <c r="C116" s="12"/>
+      <c r="E116" s="13"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C117" s="14"/>
-      <c r="E117" s="15"/>
+      <c r="C117" s="12"/>
+      <c r="E117" s="13"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C118" s="14"/>
-      <c r="E118" s="15"/>
+      <c r="C118" s="12"/>
+      <c r="E118" s="13"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C119" s="14"/>
-      <c r="E119" s="15"/>
+      <c r="C119" s="12"/>
+      <c r="E119" s="13"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C120" s="14"/>
-      <c r="E120" s="15"/>
+      <c r="C120" s="12"/>
+      <c r="E120" s="13"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C121" s="14"/>
-      <c r="E121" s="15"/>
+      <c r="C121" s="12"/>
+      <c r="E121" s="13"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C122" s="14"/>
-      <c r="E122" s="15"/>
+      <c r="C122" s="12"/>
+      <c r="E122" s="13"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C123" s="14"/>
-      <c r="E123" s="15"/>
+      <c r="C123" s="12"/>
+      <c r="E123" s="13"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C124" s="14"/>
-      <c r="E124" s="15"/>
+      <c r="C124" s="12"/>
+      <c r="E124" s="13"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C125" s="14"/>
-      <c r="E125" s="15"/>
+      <c r="C125" s="12"/>
+      <c r="E125" s="13"/>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C126" s="14"/>
-      <c r="E126" s="15"/>
+      <c r="C126" s="12"/>
+      <c r="E126" s="13"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C127" s="14"/>
-      <c r="E127" s="15"/>
+      <c r="C127" s="12"/>
+      <c r="E127" s="13"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C128" s="14"/>
-      <c r="E128" s="15"/>
+      <c r="C128" s="12"/>
+      <c r="E128" s="13"/>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C129" s="14"/>
-      <c r="E129" s="15"/>
+      <c r="C129" s="12"/>
+      <c r="E129" s="13"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C130" s="14"/>
-      <c r="E130" s="15"/>
+      <c r="C130" s="12"/>
+      <c r="E130" s="13"/>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C131" s="14"/>
-      <c r="E131" s="15"/>
+      <c r="C131" s="12"/>
+      <c r="E131" s="13"/>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C132" s="14"/>
-      <c r="E132" s="15"/>
+      <c r="C132" s="12"/>
+      <c r="E132" s="13"/>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C133" s="14"/>
-      <c r="E133" s="15"/>
+      <c r="C133" s="12"/>
+      <c r="E133" s="13"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C134" s="14"/>
-      <c r="E134" s="15"/>
+      <c r="C134" s="12"/>
+      <c r="E134" s="13"/>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C135" s="14"/>
-      <c r="E135" s="15"/>
+      <c r="C135" s="12"/>
+      <c r="E135" s="13"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C136" s="14"/>
-      <c r="E136" s="15"/>
+      <c r="C136" s="12"/>
+      <c r="E136" s="13"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C137" s="14"/>
-      <c r="E137" s="15"/>
+      <c r="C137" s="12"/>
+      <c r="E137" s="13"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C138" s="14"/>
-      <c r="E138" s="15"/>
+      <c r="C138" s="12"/>
+      <c r="E138" s="13"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C139" s="14"/>
-      <c r="E139" s="15"/>
+      <c r="C139" s="12"/>
+      <c r="E139" s="13"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C140" s="14"/>
-      <c r="E140" s="15"/>
+      <c r="C140" s="12"/>
+      <c r="E140" s="13"/>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C141" s="14"/>
-      <c r="E141" s="15"/>
+      <c r="C141" s="12"/>
+      <c r="E141" s="13"/>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C142" s="14"/>
-      <c r="E142" s="15"/>
+      <c r="C142" s="12"/>
+      <c r="E142" s="13"/>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C143" s="14"/>
-      <c r="E143" s="15"/>
+      <c r="C143" s="12"/>
+      <c r="E143" s="13"/>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C144" s="14"/>
-      <c r="E144" s="15"/>
+      <c r="C144" s="12"/>
+      <c r="E144" s="13"/>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C145" s="14"/>
-      <c r="E145" s="15"/>
+      <c r="C145" s="12"/>
+      <c r="E145" s="13"/>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C146" s="14"/>
-      <c r="E146" s="15"/>
+      <c r="C146" s="12"/>
+      <c r="E146" s="13"/>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C147" s="14"/>
-      <c r="E147" s="15"/>
+      <c r="C147" s="12"/>
+      <c r="E147" s="13"/>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C148" s="14"/>
-      <c r="E148" s="15"/>
+      <c r="C148" s="12"/>
+      <c r="E148" s="13"/>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C149" s="14"/>
-      <c r="E149" s="15"/>
+      <c r="C149" s="12"/>
+      <c r="E149" s="13"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C150" s="14"/>
-      <c r="E150" s="15"/>
+      <c r="C150" s="12"/>
+      <c r="E150" s="13"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C151" s="14"/>
-      <c r="E151" s="15"/>
+      <c r="C151" s="12"/>
+      <c r="E151" s="13"/>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C152" s="14"/>
-      <c r="E152" s="15"/>
+      <c r="C152" s="12"/>
+      <c r="E152" s="13"/>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C153" s="14"/>
-      <c r="E153" s="15"/>
+      <c r="C153" s="12"/>
+      <c r="E153" s="13"/>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C154" s="14"/>
-      <c r="E154" s="15"/>
+      <c r="C154" s="12"/>
+      <c r="E154" s="13"/>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C155" s="14"/>
-      <c r="E155" s="15"/>
+      <c r="C155" s="12"/>
+      <c r="E155" s="13"/>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C156" s="14"/>
-      <c r="E156" s="15"/>
+      <c r="C156" s="12"/>
+      <c r="E156" s="13"/>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C157" s="14"/>
-      <c r="E157" s="15"/>
+      <c r="C157" s="12"/>
+      <c r="E157" s="13"/>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C158" s="14"/>
-      <c r="E158" s="15"/>
+      <c r="C158" s="12"/>
+      <c r="E158" s="13"/>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C159" s="14"/>
-      <c r="E159" s="15"/>
+      <c r="C159" s="12"/>
+      <c r="E159" s="13"/>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C160" s="14"/>
-      <c r="E160" s="15"/>
+      <c r="C160" s="12"/>
+      <c r="E160" s="13"/>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C161" s="14"/>
-      <c r="E161" s="15"/>
+      <c r="C161" s="12"/>
+      <c r="E161" s="13"/>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C162" s="14"/>
-      <c r="E162" s="15"/>
+      <c r="C162" s="12"/>
+      <c r="E162" s="13"/>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C163" s="14"/>
-      <c r="E163" s="15"/>
+      <c r="C163" s="12"/>
+      <c r="E163" s="13"/>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C164" s="14"/>
-      <c r="E164" s="15"/>
+      <c r="C164" s="12"/>
+      <c r="E164" s="13"/>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C165" s="14"/>
-      <c r="E165" s="15"/>
+      <c r="C165" s="12"/>
+      <c r="E165" s="13"/>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C166" s="14"/>
-      <c r="E166" s="15"/>
+      <c r="C166" s="12"/>
+      <c r="E166" s="13"/>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C167" s="14"/>
-      <c r="E167" s="15"/>
+      <c r="C167" s="12"/>
+      <c r="E167" s="13"/>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C168" s="14"/>
-      <c r="E168" s="15"/>
+      <c r="C168" s="12"/>
+      <c r="E168" s="13"/>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C169" s="14"/>
-      <c r="E169" s="15"/>
+      <c r="C169" s="12"/>
+      <c r="E169" s="13"/>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C170" s="14"/>
-      <c r="E170" s="15"/>
+      <c r="C170" s="12"/>
+      <c r="E170" s="13"/>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C171" s="14"/>
-      <c r="E171" s="15"/>
+      <c r="C171" s="12"/>
+      <c r="E171" s="13"/>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C172" s="14"/>
-      <c r="E172" s="15"/>
+      <c r="C172" s="12"/>
+      <c r="E172" s="13"/>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C173" s="14"/>
-      <c r="E173" s="15"/>
+      <c r="C173" s="12"/>
+      <c r="E173" s="13"/>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C174" s="14"/>
-      <c r="E174" s="15"/>
+      <c r="C174" s="12"/>
+      <c r="E174" s="13"/>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C175" s="14"/>
-      <c r="E175" s="15"/>
+      <c r="C175" s="12"/>
+      <c r="E175" s="13"/>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C176" s="14"/>
-      <c r="E176" s="15"/>
+      <c r="C176" s="12"/>
+      <c r="E176" s="13"/>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C177" s="14"/>
-      <c r="E177" s="15"/>
+      <c r="C177" s="12"/>
+      <c r="E177" s="13"/>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C178" s="14"/>
-      <c r="E178" s="15"/>
+      <c r="C178" s="12"/>
+      <c r="E178" s="13"/>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C179" s="14"/>
-      <c r="E179" s="15"/>
+      <c r="C179" s="12"/>
+      <c r="E179" s="13"/>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C180" s="14"/>
-      <c r="E180" s="15"/>
+      <c r="C180" s="12"/>
+      <c r="E180" s="13"/>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C181" s="14"/>
-      <c r="E181" s="15"/>
+      <c r="C181" s="12"/>
+      <c r="E181" s="13"/>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C182" s="14"/>
-      <c r="E182" s="15"/>
+      <c r="C182" s="12"/>
+      <c r="E182" s="13"/>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C183" s="14"/>
-      <c r="E183" s="15"/>
+      <c r="C183" s="12"/>
+      <c r="E183" s="13"/>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C184" s="14"/>
-      <c r="E184" s="15"/>
+      <c r="C184" s="12"/>
+      <c r="E184" s="13"/>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C185" s="14"/>
-      <c r="E185" s="15"/>
+      <c r="C185" s="12"/>
+      <c r="E185" s="13"/>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C186" s="14"/>
-      <c r="E186" s="15"/>
+      <c r="C186" s="12"/>
+      <c r="E186" s="13"/>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C187" s="14"/>
-      <c r="E187" s="15"/>
+      <c r="C187" s="12"/>
+      <c r="E187" s="13"/>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C188" s="14"/>
-      <c r="E188" s="15"/>
+      <c r="C188" s="12"/>
+      <c r="E188" s="13"/>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C189" s="14"/>
-      <c r="E189" s="15"/>
+      <c r="C189" s="12"/>
+      <c r="E189" s="13"/>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C190" s="14"/>
-      <c r="E190" s="15"/>
+      <c r="C190" s="12"/>
+      <c r="E190" s="13"/>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C191" s="14"/>
-      <c r="E191" s="15"/>
+      <c r="C191" s="12"/>
+      <c r="E191" s="13"/>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C192" s="14"/>
-      <c r="E192" s="15"/>
+      <c r="C192" s="12"/>
+      <c r="E192" s="13"/>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C193" s="14"/>
-      <c r="E193" s="15"/>
+      <c r="C193" s="12"/>
+      <c r="E193" s="13"/>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C194" s="14"/>
-      <c r="E194" s="15"/>
+      <c r="C194" s="12"/>
+      <c r="E194" s="13"/>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C195" s="14"/>
-      <c r="E195" s="15"/>
+      <c r="C195" s="12"/>
+      <c r="E195" s="13"/>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C196" s="14"/>
-      <c r="E196" s="15"/>
+      <c r="C196" s="12"/>
+      <c r="E196" s="13"/>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C197" s="14"/>
-      <c r="E197" s="15"/>
+      <c r="C197" s="12"/>
+      <c r="E197" s="13"/>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C198" s="14"/>
-      <c r="E198" s="15"/>
+      <c r="C198" s="12"/>
+      <c r="E198" s="13"/>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C199" s="14"/>
-      <c r="E199" s="15"/>
+      <c r="C199" s="12"/>
+      <c r="E199" s="13"/>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C200" s="14"/>
-      <c r="E200" s="15"/>
+      <c r="C200" s="12"/>
+      <c r="E200" s="13"/>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C201" s="14"/>
-      <c r="E201" s="15"/>
+      <c r="C201" s="12"/>
+      <c r="E201" s="13"/>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C202" s="14"/>
-      <c r="E202" s="15"/>
+      <c r="C202" s="12"/>
+      <c r="E202" s="13"/>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C203" s="14"/>
-      <c r="E203" s="15"/>
+      <c r="C203" s="12"/>
+      <c r="E203" s="13"/>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C204" s="14"/>
-      <c r="E204" s="15"/>
+      <c r="C204" s="12"/>
+      <c r="E204" s="13"/>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C205" s="14"/>
-      <c r="E205" s="15"/>
+      <c r="C205" s="12"/>
+      <c r="E205" s="13"/>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C206" s="14"/>
-      <c r="E206" s="15"/>
+      <c r="C206" s="12"/>
+      <c r="E206" s="13"/>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C207" s="14"/>
-      <c r="E207" s="15"/>
+      <c r="C207" s="12"/>
+      <c r="E207" s="13"/>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C208" s="14"/>
-      <c r="E208" s="15"/>
+      <c r="C208" s="12"/>
+      <c r="E208" s="13"/>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C209" s="14"/>
-      <c r="E209" s="15"/>
+      <c r="C209" s="12"/>
+      <c r="E209" s="13"/>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C210" s="14"/>
-      <c r="E210" s="15"/>
+      <c r="C210" s="12"/>
+      <c r="E210" s="13"/>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C211" s="14"/>
-      <c r="E211" s="15"/>
+      <c r="C211" s="12"/>
+      <c r="E211" s="13"/>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C212" s="14"/>
-      <c r="E212" s="15"/>
+      <c r="C212" s="12"/>
+      <c r="E212" s="13"/>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C213" s="14"/>
-      <c r="E213" s="15"/>
+      <c r="C213" s="12"/>
+      <c r="E213" s="13"/>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C214" s="14"/>
-      <c r="E214" s="15"/>
+      <c r="C214" s="12"/>
+      <c r="E214" s="13"/>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C215" s="14"/>
-      <c r="E215" s="15"/>
+      <c r="C215" s="12"/>
+      <c r="E215" s="13"/>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C216" s="14"/>
-      <c r="E216" s="15"/>
+      <c r="C216" s="12"/>
+      <c r="E216" s="13"/>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C217" s="14"/>
-      <c r="E217" s="15"/>
+      <c r="C217" s="12"/>
+      <c r="E217" s="13"/>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C218" s="14"/>
-      <c r="E218" s="15"/>
+      <c r="C218" s="12"/>
+      <c r="E218" s="13"/>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C219" s="14"/>
-      <c r="E219" s="15"/>
+      <c r="C219" s="12"/>
+      <c r="E219" s="13"/>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C220" s="14"/>
-      <c r="E220" s="15"/>
+      <c r="C220" s="12"/>
+      <c r="E220" s="13"/>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C221" s="14"/>
-      <c r="E221" s="15"/>
+      <c r="C221" s="12"/>
+      <c r="E221" s="13"/>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C222" s="14"/>
-      <c r="E222" s="15"/>
+      <c r="C222" s="12"/>
+      <c r="E222" s="13"/>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C223" s="14"/>
-      <c r="E223" s="15"/>
+      <c r="C223" s="12"/>
+      <c r="E223" s="13"/>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C224" s="14"/>
-      <c r="E224" s="15"/>
+      <c r="C224" s="12"/>
+      <c r="E224" s="13"/>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C225" s="14"/>
-      <c r="E225" s="15"/>
+      <c r="C225" s="12"/>
+      <c r="E225" s="13"/>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C226" s="14"/>
-      <c r="E226" s="15"/>
+      <c r="C226" s="12"/>
+      <c r="E226" s="13"/>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C227" s="14"/>
-      <c r="E227" s="15"/>
+      <c r="C227" s="12"/>
+      <c r="E227" s="13"/>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C228" s="14"/>
-      <c r="E228" s="15"/>
+      <c r="C228" s="12"/>
+      <c r="E228" s="13"/>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C229" s="14"/>
-      <c r="E229" s="15"/>
+      <c r="C229" s="12"/>
+      <c r="E229" s="13"/>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C230" s="14"/>
-      <c r="E230" s="15"/>
+      <c r="C230" s="12"/>
+      <c r="E230" s="13"/>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C231" s="14"/>
-      <c r="E231" s="15"/>
+      <c r="C231" s="12"/>
+      <c r="E231" s="13"/>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C232" s="14"/>
-      <c r="E232" s="15"/>
+      <c r="C232" s="12"/>
+      <c r="E232" s="13"/>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C233" s="14"/>
-      <c r="E233" s="15"/>
+      <c r="C233" s="12"/>
+      <c r="E233" s="13"/>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C234" s="14"/>
-      <c r="E234" s="15"/>
+      <c r="C234" s="12"/>
+      <c r="E234" s="13"/>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C235" s="14"/>
-      <c r="E235" s="15"/>
+      <c r="C235" s="12"/>
+      <c r="E235" s="13"/>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C236" s="14"/>
-      <c r="E236" s="15"/>
+      <c r="C236" s="12"/>
+      <c r="E236" s="13"/>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C237" s="14"/>
-      <c r="E237" s="15"/>
+      <c r="C237" s="12"/>
+      <c r="E237" s="13"/>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C238" s="14"/>
-      <c r="E238" s="15"/>
+      <c r="C238" s="12"/>
+      <c r="E238" s="13"/>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C239" s="14"/>
-      <c r="E239" s="15"/>
+      <c r="C239" s="12"/>
+      <c r="E239" s="13"/>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C240" s="14"/>
-      <c r="E240" s="15"/>
+      <c r="C240" s="12"/>
+      <c r="E240" s="13"/>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C241" s="14"/>
-      <c r="E241" s="15"/>
+      <c r="C241" s="12"/>
+      <c r="E241" s="13"/>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C242" s="14"/>
-      <c r="E242" s="15"/>
+      <c r="C242" s="12"/>
+      <c r="E242" s="13"/>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C243" s="14"/>
-      <c r="E243" s="15"/>
+      <c r="C243" s="12"/>
+      <c r="E243" s="13"/>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C244" s="14"/>
-      <c r="E244" s="15"/>
+      <c r="C244" s="12"/>
+      <c r="E244" s="13"/>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C245" s="14"/>
-      <c r="E245" s="15"/>
+      <c r="C245" s="12"/>
+      <c r="E245" s="13"/>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C246" s="14"/>
-      <c r="E246" s="15"/>
+      <c r="C246" s="12"/>
+      <c r="E246" s="13"/>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C247" s="14"/>
-      <c r="E247" s="15"/>
+      <c r="C247" s="12"/>
+      <c r="E247" s="13"/>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C248" s="14"/>
-      <c r="E248" s="15"/>
+      <c r="C248" s="12"/>
+      <c r="E248" s="13"/>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C249" s="14"/>
-      <c r="E249" s="15"/>
+      <c r="C249" s="12"/>
+      <c r="E249" s="13"/>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C250" s="14"/>
-      <c r="E250" s="15"/>
+      <c r="C250" s="12"/>
+      <c r="E250" s="13"/>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C251" s="14"/>
-      <c r="E251" s="15"/>
+      <c r="C251" s="12"/>
+      <c r="E251" s="13"/>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C252" s="14"/>
-      <c r="E252" s="15"/>
+      <c r="C252" s="12"/>
+      <c r="E252" s="13"/>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C253" s="14"/>
-      <c r="E253" s="15"/>
+      <c r="C253" s="12"/>
+      <c r="E253" s="13"/>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C254" s="14"/>
-      <c r="E254" s="15"/>
+      <c r="C254" s="12"/>
+      <c r="E254" s="13"/>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C255" s="14"/>
-      <c r="E255" s="15"/>
+      <c r="C255" s="12"/>
+      <c r="E255" s="13"/>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C256" s="14"/>
-      <c r="E256" s="15"/>
+      <c r="C256" s="12"/>
+      <c r="E256" s="13"/>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C257" s="14"/>
-      <c r="E257" s="15"/>
+      <c r="C257" s="12"/>
+      <c r="E257" s="13"/>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C258" s="14"/>
-      <c r="E258" s="15"/>
+      <c r="C258" s="12"/>
+      <c r="E258" s="13"/>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C259" s="14"/>
-      <c r="E259" s="15"/>
+      <c r="C259" s="12"/>
+      <c r="E259" s="13"/>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C260" s="14"/>
-      <c r="E260" s="15"/>
+      <c r="C260" s="12"/>
+      <c r="E260" s="13"/>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C261" s="14"/>
-      <c r="E261" s="15"/>
+      <c r="C261" s="12"/>
+      <c r="E261" s="13"/>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C262" s="14"/>
-      <c r="E262" s="15"/>
+      <c r="C262" s="12"/>
+      <c r="E262" s="13"/>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C263" s="14"/>
-      <c r="E263" s="15"/>
+      <c r="C263" s="12"/>
+      <c r="E263" s="13"/>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C264" s="14"/>
-      <c r="E264" s="15"/>
+      <c r="C264" s="12"/>
+      <c r="E264" s="13"/>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C265" s="14"/>
-      <c r="E265" s="15"/>
+      <c r="C265" s="12"/>
+      <c r="E265" s="13"/>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C266" s="14"/>
-      <c r="E266" s="15"/>
+      <c r="C266" s="12"/>
+      <c r="E266" s="13"/>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C267" s="14"/>
-      <c r="E267" s="15"/>
+      <c r="C267" s="12"/>
+      <c r="E267" s="13"/>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C268" s="14"/>
-      <c r="E268" s="15"/>
+      <c r="C268" s="12"/>
+      <c r="E268" s="13"/>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C269" s="14"/>
-      <c r="E269" s="15"/>
+      <c r="C269" s="12"/>
+      <c r="E269" s="13"/>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C270" s="14"/>
-      <c r="E270" s="15"/>
+      <c r="C270" s="12"/>
+      <c r="E270" s="13"/>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C271" s="14"/>
-      <c r="E271" s="15"/>
+      <c r="C271" s="12"/>
+      <c r="E271" s="13"/>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C272" s="14"/>
-      <c r="E272" s="15"/>
+      <c r="C272" s="12"/>
+      <c r="E272" s="13"/>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C273" s="14"/>
-      <c r="E273" s="15"/>
+      <c r="C273" s="12"/>
+      <c r="E273" s="13"/>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C274" s="14"/>
-      <c r="E274" s="15"/>
+      <c r="C274" s="12"/>
+      <c r="E274" s="13"/>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C275" s="14"/>
-      <c r="E275" s="15"/>
+      <c r="C275" s="12"/>
+      <c r="E275" s="13"/>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C276" s="14"/>
-      <c r="E276" s="15"/>
+      <c r="C276" s="12"/>
+      <c r="E276" s="13"/>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C277" s="14"/>
-      <c r="E277" s="15"/>
+      <c r="C277" s="12"/>
+      <c r="E277" s="13"/>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C278" s="14"/>
-      <c r="E278" s="15"/>
+      <c r="C278" s="12"/>
+      <c r="E278" s="13"/>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C279" s="14"/>
-      <c r="E279" s="15"/>
+      <c r="C279" s="12"/>
+      <c r="E279" s="13"/>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C280" s="14"/>
-      <c r="E280" s="15"/>
+      <c r="C280" s="12"/>
+      <c r="E280" s="13"/>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C281" s="14"/>
-      <c r="E281" s="15"/>
+      <c r="C281" s="12"/>
+      <c r="E281" s="13"/>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C282" s="14"/>
-      <c r="E282" s="15"/>
+      <c r="C282" s="12"/>
+      <c r="E282" s="13"/>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C283" s="14"/>
-      <c r="E283" s="15"/>
+      <c r="C283" s="12"/>
+      <c r="E283" s="13"/>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C284" s="14"/>
-      <c r="E284" s="15"/>
+      <c r="C284" s="12"/>
+      <c r="E284" s="13"/>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C285" s="14"/>
-      <c r="E285" s="15"/>
+      <c r="C285" s="12"/>
+      <c r="E285" s="13"/>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C286" s="14"/>
-      <c r="E286" s="15"/>
+      <c r="C286" s="12"/>
+      <c r="E286" s="13"/>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C287" s="14"/>
-      <c r="E287" s="15"/>
+      <c r="C287" s="12"/>
+      <c r="E287" s="13"/>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C288" s="14"/>
-      <c r="E288" s="15"/>
+      <c r="C288" s="12"/>
+      <c r="E288" s="13"/>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C289" s="14"/>
-      <c r="E289" s="15"/>
+      <c r="C289" s="12"/>
+      <c r="E289" s="13"/>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C290" s="14"/>
-      <c r="E290" s="15"/>
+      <c r="C290" s="12"/>
+      <c r="E290" s="13"/>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C291" s="14"/>
-      <c r="E291" s="15"/>
+      <c r="C291" s="12"/>
+      <c r="E291" s="13"/>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C292" s="14"/>
-      <c r="E292" s="15"/>
+      <c r="C292" s="12"/>
+      <c r="E292" s="13"/>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C293" s="14"/>
-      <c r="E293" s="15"/>
+      <c r="C293" s="12"/>
+      <c r="E293" s="13"/>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C294" s="14"/>
-      <c r="E294" s="15"/>
+      <c r="C294" s="12"/>
+      <c r="E294" s="13"/>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C295" s="14"/>
-      <c r="E295" s="15"/>
+      <c r="C295" s="12"/>
+      <c r="E295" s="13"/>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C296" s="14"/>
-      <c r="E296" s="15"/>
+      <c r="C296" s="12"/>
+      <c r="E296" s="13"/>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C297" s="14"/>
-      <c r="E297" s="15"/>
+      <c r="C297" s="12"/>
+      <c r="E297" s="13"/>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C298" s="14"/>
-      <c r="E298" s="15"/>
+      <c r="C298" s="12"/>
+      <c r="E298" s="13"/>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C299" s="14"/>
-      <c r="E299" s="15"/>
+      <c r="C299" s="12"/>
+      <c r="E299" s="13"/>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C300" s="14"/>
-      <c r="E300" s="15"/>
+      <c r="C300" s="12"/>
+      <c r="E300" s="13"/>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C301" s="14"/>
-      <c r="E301" s="15"/>
+      <c r="C301" s="12"/>
+      <c r="E301" s="13"/>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C302" s="14"/>
-      <c r="E302" s="15"/>
+      <c r="C302" s="12"/>
+      <c r="E302" s="13"/>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C303" s="14"/>
-      <c r="E303" s="15"/>
+      <c r="C303" s="12"/>
+      <c r="E303" s="13"/>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C304" s="14"/>
-      <c r="E304" s="15"/>
+      <c r="C304" s="12"/>
+      <c r="E304" s="13"/>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C305" s="14"/>
-      <c r="E305" s="15"/>
+      <c r="C305" s="12"/>
+      <c r="E305" s="13"/>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C306" s="14"/>
-      <c r="E306" s="15"/>
+      <c r="C306" s="12"/>
+      <c r="E306" s="13"/>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C307" s="14"/>
-      <c r="E307" s="15"/>
+      <c r="C307" s="12"/>
+      <c r="E307" s="13"/>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C308" s="14"/>
-      <c r="E308" s="15"/>
+      <c r="C308" s="12"/>
+      <c r="E308" s="13"/>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C309" s="14"/>
-      <c r="E309" s="15"/>
+      <c r="C309" s="12"/>
+      <c r="E309" s="13"/>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C310" s="14"/>
-      <c r="E310" s="15"/>
+      <c r="C310" s="12"/>
+      <c r="E310" s="13"/>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C311" s="14"/>
-      <c r="E311" s="15"/>
+      <c r="C311" s="12"/>
+      <c r="E311" s="13"/>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C312" s="14"/>
-      <c r="E312" s="15"/>
+      <c r="C312" s="12"/>
+      <c r="E312" s="13"/>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C313" s="14"/>
-      <c r="E313" s="15"/>
+      <c r="C313" s="12"/>
+      <c r="E313" s="13"/>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C314" s="14"/>
-      <c r="E314" s="15"/>
+      <c r="C314" s="12"/>
+      <c r="E314" s="13"/>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C315" s="14"/>
-      <c r="E315" s="15"/>
+      <c r="C315" s="12"/>
+      <c r="E315" s="13"/>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C316" s="14"/>
-      <c r="E316" s="15"/>
+      <c r="C316" s="12"/>
+      <c r="E316" s="13"/>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C317" s="14"/>
-      <c r="E317" s="15"/>
+      <c r="C317" s="12"/>
+      <c r="E317" s="13"/>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C318" s="14"/>
-      <c r="E318" s="15"/>
+      <c r="C318" s="12"/>
+      <c r="E318" s="13"/>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C319" s="14"/>
-      <c r="E319" s="15"/>
+      <c r="C319" s="12"/>
+      <c r="E319" s="13"/>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C320" s="14"/>
-      <c r="E320" s="15"/>
+      <c r="C320" s="12"/>
+      <c r="E320" s="13"/>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C321" s="14"/>
-      <c r="E321" s="15"/>
+      <c r="C321" s="12"/>
+      <c r="E321" s="13"/>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C322" s="14"/>
-      <c r="E322" s="15"/>
+      <c r="C322" s="12"/>
+      <c r="E322" s="13"/>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C323" s="14"/>
-      <c r="E323" s="15"/>
+      <c r="C323" s="12"/>
+      <c r="E323" s="13"/>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C324" s="14"/>
-      <c r="E324" s="15"/>
+      <c r="C324" s="12"/>
+      <c r="E324" s="13"/>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C325" s="14"/>
-      <c r="E325" s="15"/>
+      <c r="C325" s="12"/>
+      <c r="E325" s="13"/>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C326" s="14"/>
-      <c r="E326" s="15"/>
+      <c r="C326" s="12"/>
+      <c r="E326" s="13"/>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C327" s="14"/>
-      <c r="E327" s="15"/>
+      <c r="C327" s="12"/>
+      <c r="E327" s="13"/>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C328" s="14"/>
-      <c r="E328" s="15"/>
+      <c r="C328" s="12"/>
+      <c r="E328" s="13"/>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C329" s="14"/>
-      <c r="E329" s="15"/>
+      <c r="C329" s="12"/>
+      <c r="E329" s="13"/>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C330" s="14"/>
-      <c r="E330" s="15"/>
+      <c r="C330" s="12"/>
+      <c r="E330" s="13"/>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C331" s="14"/>
-      <c r="E331" s="15"/>
+      <c r="C331" s="12"/>
+      <c r="E331" s="13"/>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C332" s="14"/>
-      <c r="E332" s="15"/>
+      <c r="C332" s="12"/>
+      <c r="E332" s="13"/>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C333" s="14"/>
-      <c r="E333" s="15"/>
+      <c r="C333" s="12"/>
+      <c r="E333" s="13"/>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C334" s="14"/>
-      <c r="E334" s="15"/>
+      <c r="C334" s="12"/>
+      <c r="E334" s="13"/>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C335" s="14"/>
-      <c r="E335" s="15"/>
+      <c r="C335" s="12"/>
+      <c r="E335" s="13"/>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C336" s="14"/>
-      <c r="E336" s="15"/>
+      <c r="C336" s="12"/>
+      <c r="E336" s="13"/>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C337" s="14"/>
-      <c r="E337" s="15"/>
+      <c r="C337" s="12"/>
+      <c r="E337" s="13"/>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C338" s="14"/>
-      <c r="E338" s="15"/>
+      <c r="C338" s="12"/>
+      <c r="E338" s="13"/>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C339" s="14"/>
-      <c r="E339" s="15"/>
+      <c r="C339" s="12"/>
+      <c r="E339" s="13"/>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C340" s="14"/>
-      <c r="E340" s="15"/>
+      <c r="C340" s="12"/>
+      <c r="E340" s="13"/>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C341" s="14"/>
-      <c r="E341" s="15"/>
+      <c r="C341" s="12"/>
+      <c r="E341" s="13"/>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C342" s="14"/>
-      <c r="E342" s="15"/>
+      <c r="C342" s="12"/>
+      <c r="E342" s="13"/>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C343" s="14"/>
-      <c r="E343" s="15"/>
+      <c r="C343" s="12"/>
+      <c r="E343" s="13"/>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C344" s="14"/>
-      <c r="E344" s="15"/>
+      <c r="C344" s="12"/>
+      <c r="E344" s="13"/>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C345" s="14"/>
-      <c r="E345" s="15"/>
+      <c r="C345" s="12"/>
+      <c r="E345" s="13"/>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C346" s="14"/>
-      <c r="E346" s="15"/>
+      <c r="C346" s="12"/>
+      <c r="E346" s="13"/>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C347" s="14"/>
-      <c r="E347" s="15"/>
+      <c r="C347" s="12"/>
+      <c r="E347" s="13"/>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C348" s="14"/>
-      <c r="E348" s="15"/>
+      <c r="C348" s="12"/>
+      <c r="E348" s="13"/>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C349" s="14"/>
-      <c r="E349" s="15"/>
+      <c r="C349" s="12"/>
+      <c r="E349" s="13"/>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C350" s="14"/>
-      <c r="E350" s="15"/>
+      <c r="C350" s="12"/>
+      <c r="E350" s="13"/>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C351" s="14"/>
-      <c r="E351" s="15"/>
+      <c r="C351" s="12"/>
+      <c r="E351" s="13"/>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C352" s="14"/>
-      <c r="E352" s="15"/>
+      <c r="C352" s="12"/>
+      <c r="E352" s="13"/>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C353" s="14"/>
-      <c r="E353" s="15"/>
+      <c r="C353" s="12"/>
+      <c r="E353" s="13"/>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C354" s="14"/>
-      <c r="E354" s="15"/>
+      <c r="C354" s="12"/>
+      <c r="E354" s="13"/>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C355" s="14"/>
-      <c r="E355" s="15"/>
+      <c r="C355" s="12"/>
+      <c r="E355" s="13"/>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C356" s="14"/>
-      <c r="E356" s="15"/>
+      <c r="C356" s="12"/>
+      <c r="E356" s="13"/>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C357" s="14"/>
-      <c r="E357" s="15"/>
+      <c r="C357" s="12"/>
+      <c r="E357" s="13"/>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C358" s="14"/>
-      <c r="E358" s="15"/>
+      <c r="C358" s="12"/>
+      <c r="E358" s="13"/>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C359" s="14"/>
-      <c r="E359" s="15"/>
+      <c r="C359" s="12"/>
+      <c r="E359" s="13"/>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C360" s="14"/>
-      <c r="E360" s="15"/>
+      <c r="C360" s="12"/>
+      <c r="E360" s="13"/>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C361" s="14"/>
-      <c r="E361" s="15"/>
+      <c r="C361" s="12"/>
+      <c r="E361" s="13"/>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C362" s="14"/>
-      <c r="E362" s="15"/>
+      <c r="C362" s="12"/>
+      <c r="E362" s="13"/>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C363" s="14"/>
-      <c r="E363" s="15"/>
+      <c r="C363" s="12"/>
+      <c r="E363" s="13"/>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C364" s="14"/>
-      <c r="E364" s="15"/>
+      <c r="C364" s="12"/>
+      <c r="E364" s="13"/>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C365" s="14"/>
-      <c r="E365" s="15"/>
+      <c r="C365" s="12"/>
+      <c r="E365" s="13"/>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C366" s="14"/>
-      <c r="E366" s="15"/>
+      <c r="C366" s="12"/>
+      <c r="E366" s="13"/>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C367" s="14"/>
-      <c r="E367" s="15"/>
+      <c r="C367" s="12"/>
+      <c r="E367" s="13"/>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C368" s="14"/>
-      <c r="E368" s="15"/>
+      <c r="C368" s="12"/>
+      <c r="E368" s="13"/>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C369" s="14"/>
-      <c r="E369" s="15"/>
+      <c r="C369" s="12"/>
+      <c r="E369" s="13"/>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C370" s="14"/>
-      <c r="E370" s="15"/>
+      <c r="C370" s="12"/>
+      <c r="E370" s="13"/>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C371" s="14"/>
-      <c r="E371" s="15"/>
+      <c r="C371" s="12"/>
+      <c r="E371" s="13"/>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C372" s="14"/>
-      <c r="E372" s="15"/>
+      <c r="C372" s="12"/>
+      <c r="E372" s="13"/>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C373" s="14"/>
-      <c r="E373" s="15"/>
+      <c r="C373" s="12"/>
+      <c r="E373" s="13"/>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C374" s="14"/>
-      <c r="E374" s="15"/>
+      <c r="C374" s="12"/>
+      <c r="E374" s="13"/>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C375" s="14"/>
-      <c r="E375" s="15"/>
+      <c r="C375" s="12"/>
+      <c r="E375" s="13"/>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C376" s="14"/>
-      <c r="E376" s="15"/>
+      <c r="C376" s="12"/>
+      <c r="E376" s="13"/>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C377" s="14"/>
-      <c r="E377" s="15"/>
+      <c r="C377" s="12"/>
+      <c r="E377" s="13"/>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C378" s="14"/>
-      <c r="E378" s="15"/>
+      <c r="C378" s="12"/>
+      <c r="E378" s="13"/>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C379" s="14"/>
-      <c r="E379" s="15"/>
+      <c r="C379" s="12"/>
+      <c r="E379" s="13"/>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C380" s="14"/>
-      <c r="E380" s="15"/>
+      <c r="C380" s="12"/>
+      <c r="E380" s="13"/>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C381" s="14"/>
-      <c r="E381" s="15"/>
+      <c r="C381" s="12"/>
+      <c r="E381" s="13"/>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C382" s="14"/>
-      <c r="E382" s="15"/>
+      <c r="C382" s="12"/>
+      <c r="E382" s="13"/>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C383" s="14"/>
-      <c r="E383" s="15"/>
+      <c r="C383" s="12"/>
+      <c r="E383" s="13"/>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C384" s="14"/>
-      <c r="E384" s="15"/>
+      <c r="C384" s="12"/>
+      <c r="E384" s="13"/>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C385" s="14"/>
-      <c r="E385" s="15"/>
+      <c r="C385" s="12"/>
+      <c r="E385" s="13"/>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C386" s="14"/>
-      <c r="E386" s="15"/>
+      <c r="C386" s="12"/>
+      <c r="E386" s="13"/>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C387" s="14"/>
-      <c r="E387" s="15"/>
+      <c r="C387" s="12"/>
+      <c r="E387" s="13"/>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C388" s="14"/>
-      <c r="E388" s="15"/>
+      <c r="C388" s="12"/>
+      <c r="E388" s="13"/>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C389" s="14"/>
-      <c r="E389" s="15"/>
+      <c r="C389" s="12"/>
+      <c r="E389" s="13"/>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C390" s="14"/>
-      <c r="E390" s="15"/>
+      <c r="C390" s="12"/>
+      <c r="E390" s="13"/>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C391" s="14"/>
-      <c r="E391" s="15"/>
+      <c r="C391" s="12"/>
+      <c r="E391" s="13"/>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C392" s="14"/>
-      <c r="E392" s="15"/>
+      <c r="C392" s="12"/>
+      <c r="E392" s="13"/>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C393" s="14"/>
-      <c r="E393" s="15"/>
+      <c r="C393" s="12"/>
+      <c r="E393" s="13"/>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C394" s="14"/>
-      <c r="E394" s="15"/>
+      <c r="C394" s="12"/>
+      <c r="E394" s="13"/>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C395" s="14"/>
-      <c r="E395" s="15"/>
+      <c r="C395" s="12"/>
+      <c r="E395" s="13"/>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C396" s="14"/>
-      <c r="E396" s="15"/>
+      <c r="C396" s="12"/>
+      <c r="E396" s="13"/>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C397" s="14"/>
-      <c r="E397" s="15"/>
+      <c r="C397" s="12"/>
+      <c r="E397" s="13"/>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C398" s="14"/>
-      <c r="E398" s="15"/>
+      <c r="C398" s="12"/>
+      <c r="E398" s="13"/>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C399" s="14"/>
-      <c r="E399" s="15"/>
+      <c r="C399" s="12"/>
+      <c r="E399" s="13"/>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C400" s="14"/>
-      <c r="E400" s="15"/>
+      <c r="C400" s="12"/>
+      <c r="E400" s="13"/>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C401" s="14"/>
-      <c r="E401" s="15"/>
+      <c r="C401" s="12"/>
+      <c r="E401" s="13"/>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C402" s="14"/>
-      <c r="E402" s="15"/>
+      <c r="C402" s="12"/>
+      <c r="E402" s="13"/>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C403" s="14"/>
-      <c r="E403" s="15"/>
+      <c r="C403" s="12"/>
+      <c r="E403" s="13"/>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C404" s="14"/>
-      <c r="E404" s="15"/>
+      <c r="C404" s="12"/>
+      <c r="E404" s="13"/>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C405" s="14"/>
-      <c r="E405" s="15"/>
+      <c r="C405" s="12"/>
+      <c r="E405" s="13"/>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C406" s="14"/>
-      <c r="E406" s="15"/>
+      <c r="C406" s="12"/>
+      <c r="E406" s="13"/>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C407" s="14"/>
-      <c r="E407" s="15"/>
+      <c r="C407" s="12"/>
+      <c r="E407" s="13"/>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C408" s="14"/>
-      <c r="E408" s="15"/>
+      <c r="C408" s="12"/>
+      <c r="E408" s="13"/>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C409" s="14"/>
-      <c r="E409" s="15"/>
+      <c r="C409" s="12"/>
+      <c r="E409" s="13"/>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C410" s="14"/>
-      <c r="E410" s="15"/>
+      <c r="C410" s="12"/>
+      <c r="E410" s="13"/>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C411" s="14"/>
-      <c r="E411" s="15"/>
+      <c r="C411" s="12"/>
+      <c r="E411" s="13"/>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C412" s="14"/>
-      <c r="E412" s="15"/>
+      <c r="C412" s="12"/>
+      <c r="E412" s="13"/>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C413" s="14"/>
-      <c r="E413" s="15"/>
+      <c r="C413" s="12"/>
+      <c r="E413" s="13"/>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C414" s="14"/>
-      <c r="E414" s="15"/>
+      <c r="C414" s="12"/>
+      <c r="E414" s="13"/>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C415" s="14"/>
-      <c r="E415" s="15"/>
+      <c r="C415" s="12"/>
+      <c r="E415" s="13"/>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C416" s="14"/>
-      <c r="E416" s="15"/>
+      <c r="C416" s="12"/>
+      <c r="E416" s="13"/>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C417" s="14"/>
-      <c r="E417" s="15"/>
+      <c r="C417" s="12"/>
+      <c r="E417" s="13"/>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C418" s="14"/>
-      <c r="E418" s="15"/>
+      <c r="C418" s="12"/>
+      <c r="E418" s="13"/>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C419" s="14"/>
-      <c r="E419" s="15"/>
+      <c r="C419" s="12"/>
+      <c r="E419" s="13"/>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C420" s="14"/>
-      <c r="E420" s="15"/>
+      <c r="C420" s="12"/>
+      <c r="E420" s="13"/>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C421" s="14"/>
-      <c r="E421" s="15"/>
+      <c r="C421" s="12"/>
+      <c r="E421" s="13"/>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C422" s="14"/>
-      <c r="E422" s="15"/>
+      <c r="C422" s="12"/>
+      <c r="E422" s="13"/>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C423" s="14"/>
-      <c r="E423" s="15"/>
+      <c r="C423" s="12"/>
+      <c r="E423" s="13"/>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C424" s="14"/>
-      <c r="E424" s="15"/>
+      <c r="C424" s="12"/>
+      <c r="E424" s="13"/>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C425" s="14"/>
-      <c r="E425" s="15"/>
+      <c r="C425" s="12"/>
+      <c r="E425" s="13"/>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C426" s="14"/>
-      <c r="E426" s="15"/>
+      <c r="C426" s="12"/>
+      <c r="E426" s="13"/>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C427" s="14"/>
-      <c r="E427" s="15"/>
+      <c r="C427" s="12"/>
+      <c r="E427" s="13"/>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C428" s="14"/>
-      <c r="E428" s="15"/>
+      <c r="C428" s="12"/>
+      <c r="E428" s="13"/>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C429" s="14"/>
-      <c r="E429" s="15"/>
+      <c r="C429" s="12"/>
+      <c r="E429" s="13"/>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C430" s="14"/>
-      <c r="E430" s="15"/>
+      <c r="C430" s="12"/>
+      <c r="E430" s="13"/>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C431" s="14"/>
-      <c r="E431" s="15"/>
+      <c r="C431" s="12"/>
+      <c r="E431" s="13"/>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C432" s="14"/>
-      <c r="E432" s="15"/>
+      <c r="C432" s="12"/>
+      <c r="E432" s="13"/>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C433" s="14"/>
-      <c r="E433" s="15"/>
+      <c r="C433" s="12"/>
+      <c r="E433" s="13"/>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C434" s="14"/>
-      <c r="E434" s="15"/>
+      <c r="C434" s="12"/>
+      <c r="E434" s="13"/>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C435" s="14"/>
-      <c r="E435" s="15"/>
+      <c r="C435" s="12"/>
+      <c r="E435" s="13"/>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C436" s="14"/>
-      <c r="E436" s="15"/>
+      <c r="C436" s="12"/>
+      <c r="E436" s="13"/>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C437" s="14"/>
-      <c r="E437" s="15"/>
+      <c r="C437" s="12"/>
+      <c r="E437" s="13"/>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C438" s="14"/>
-      <c r="E438" s="15"/>
+      <c r="C438" s="12"/>
+      <c r="E438" s="13"/>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C439" s="14"/>
-      <c r="E439" s="15"/>
+      <c r="C439" s="12"/>
+      <c r="E439" s="13"/>
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C440" s="14"/>
-      <c r="E440" s="15"/>
+      <c r="C440" s="12"/>
+      <c r="E440" s="13"/>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C441" s="14"/>
-      <c r="E441" s="15"/>
+      <c r="C441" s="12"/>
+      <c r="E441" s="13"/>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C442" s="14"/>
-      <c r="E442" s="15"/>
+      <c r="C442" s="12"/>
+      <c r="E442" s="13"/>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C443" s="14"/>
-      <c r="E443" s="15"/>
+      <c r="C443" s="12"/>
+      <c r="E443" s="13"/>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C444" s="14"/>
-      <c r="E444" s="15"/>
+      <c r="C444" s="12"/>
+      <c r="E444" s="13"/>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C445" s="14"/>
-      <c r="E445" s="15"/>
+      <c r="C445" s="12"/>
+      <c r="E445" s="13"/>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C446" s="14"/>
-      <c r="E446" s="15"/>
+      <c r="C446" s="12"/>
+      <c r="E446" s="13"/>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C447" s="14"/>
-      <c r="E447" s="15"/>
+      <c r="C447" s="12"/>
+      <c r="E447" s="13"/>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C448" s="14"/>
-      <c r="E448" s="15"/>
+      <c r="C448" s="12"/>
+      <c r="E448" s="13"/>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C449" s="14"/>
-      <c r="E449" s="15"/>
+      <c r="C449" s="12"/>
+      <c r="E449" s="13"/>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C450" s="14"/>
-      <c r="E450" s="15"/>
+      <c r="C450" s="12"/>
+      <c r="E450" s="13"/>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C451" s="14"/>
-      <c r="E451" s="15"/>
+      <c r="C451" s="12"/>
+      <c r="E451" s="13"/>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C452" s="14"/>
-      <c r="E452" s="15"/>
+      <c r="C452" s="12"/>
+      <c r="E452" s="13"/>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C453" s="14"/>
-      <c r="E453" s="15"/>
+      <c r="C453" s="12"/>
+      <c r="E453" s="13"/>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C454" s="14"/>
-      <c r="E454" s="15"/>
+      <c r="C454" s="12"/>
+      <c r="E454" s="13"/>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C455" s="14"/>
-      <c r="E455" s="15"/>
+      <c r="C455" s="12"/>
+      <c r="E455" s="13"/>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C456" s="14"/>
-      <c r="E456" s="15"/>
+      <c r="C456" s="12"/>
+      <c r="E456" s="13"/>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C457" s="14"/>
-      <c r="E457" s="15"/>
+      <c r="C457" s="12"/>
+      <c r="E457" s="13"/>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C458" s="14"/>
-      <c r="E458" s="15"/>
+      <c r="C458" s="12"/>
+      <c r="E458" s="13"/>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C459" s="14"/>
-      <c r="E459" s="15"/>
+      <c r="C459" s="12"/>
+      <c r="E459" s="13"/>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C460" s="14"/>
-      <c r="E460" s="15"/>
+      <c r="C460" s="12"/>
+      <c r="E460" s="13"/>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C461" s="14"/>
-      <c r="E461" s="15"/>
+      <c r="C461" s="12"/>
+      <c r="E461" s="13"/>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C462" s="14"/>
-      <c r="E462" s="15"/>
+      <c r="C462" s="12"/>
+      <c r="E462" s="13"/>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C463" s="14"/>
-      <c r="E463" s="15"/>
+      <c r="C463" s="12"/>
+      <c r="E463" s="13"/>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C464" s="14"/>
-      <c r="E464" s="15"/>
+      <c r="C464" s="12"/>
+      <c r="E464" s="13"/>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C465" s="14"/>
-      <c r="E465" s="15"/>
+      <c r="C465" s="12"/>
+      <c r="E465" s="13"/>
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C466" s="14"/>
-      <c r="E466" s="15"/>
+      <c r="C466" s="12"/>
+      <c r="E466" s="13"/>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C467" s="14"/>
-      <c r="E467" s="15"/>
+      <c r="C467" s="12"/>
+      <c r="E467" s="13"/>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C468" s="14"/>
-      <c r="E468" s="15"/>
+      <c r="C468" s="12"/>
+      <c r="E468" s="13"/>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C469" s="14"/>
-      <c r="E469" s="15"/>
+      <c r="C469" s="12"/>
+      <c r="E469" s="13"/>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C470" s="14"/>
-      <c r="E470" s="15"/>
+      <c r="C470" s="12"/>
+      <c r="E470" s="13"/>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C471" s="14"/>
-      <c r="E471" s="15"/>
+      <c r="C471" s="12"/>
+      <c r="E471" s="13"/>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C472" s="14"/>
-      <c r="E472" s="15"/>
+      <c r="C472" s="12"/>
+      <c r="E472" s="13"/>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C473" s="14"/>
-      <c r="E473" s="15"/>
+      <c r="C473" s="12"/>
+      <c r="E473" s="13"/>
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C474" s="14"/>
-      <c r="E474" s="15"/>
+      <c r="C474" s="12"/>
+      <c r="E474" s="13"/>
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C475" s="14"/>
-      <c r="E475" s="15"/>
+      <c r="C475" s="12"/>
+      <c r="E475" s="13"/>
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C476" s="14"/>
-      <c r="E476" s="15"/>
+      <c r="C476" s="12"/>
+      <c r="E476" s="13"/>
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C477" s="14"/>
-      <c r="E477" s="15"/>
+      <c r="C477" s="12"/>
+      <c r="E477" s="13"/>
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C478" s="14"/>
-      <c r="E478" s="15"/>
+      <c r="C478" s="12"/>
+      <c r="E478" s="13"/>
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C479" s="14"/>
-      <c r="E479" s="15"/>
+      <c r="C479" s="12"/>
+      <c r="E479" s="13"/>
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C480" s="14"/>
-      <c r="E480" s="15"/>
+      <c r="C480" s="12"/>
+      <c r="E480" s="13"/>
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C481" s="14"/>
-      <c r="E481" s="15"/>
+      <c r="C481" s="12"/>
+      <c r="E481" s="13"/>
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C482" s="14"/>
-      <c r="E482" s="15"/>
+      <c r="C482" s="12"/>
+      <c r="E482" s="13"/>
     </row>
     <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C483" s="14"/>
-      <c r="E483" s="15"/>
+      <c r="C483" s="12"/>
+      <c r="E483" s="13"/>
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C484" s="14"/>
-      <c r="E484" s="15"/>
+      <c r="C484" s="12"/>
+      <c r="E484" s="13"/>
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C485" s="14"/>
-      <c r="E485" s="15"/>
+      <c r="C485" s="12"/>
+      <c r="E485" s="13"/>
     </row>
     <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C486" s="14"/>
-      <c r="E486" s="15"/>
+      <c r="C486" s="12"/>
+      <c r="E486" s="13"/>
     </row>
     <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C487" s="14"/>
-      <c r="E487" s="15"/>
+      <c r="C487" s="12"/>
+      <c r="E487" s="13"/>
     </row>
     <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C488" s="14"/>
-      <c r="E488" s="15"/>
+      <c r="C488" s="12"/>
+      <c r="E488" s="13"/>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C489" s="14"/>
-      <c r="E489" s="15"/>
+      <c r="C489" s="12"/>
+      <c r="E489" s="13"/>
     </row>
     <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C490" s="14"/>
-      <c r="E490" s="15"/>
+      <c r="C490" s="12"/>
+      <c r="E490" s="13"/>
     </row>
     <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C491" s="14"/>
-      <c r="E491" s="15"/>
+      <c r="C491" s="12"/>
+      <c r="E491" s="13"/>
     </row>
     <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C492" s="14"/>
-      <c r="E492" s="15"/>
+      <c r="C492" s="12"/>
+      <c r="E492" s="13"/>
     </row>
     <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C493" s="14"/>
-      <c r="E493" s="15"/>
+      <c r="C493" s="12"/>
+      <c r="E493" s="13"/>
     </row>
     <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C494" s="14"/>
-      <c r="E494" s="15"/>
+      <c r="C494" s="12"/>
+      <c r="E494" s="13"/>
     </row>
     <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C495" s="14"/>
-      <c r="E495" s="15"/>
+      <c r="C495" s="12"/>
+      <c r="E495" s="13"/>
     </row>
     <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C496" s="14"/>
-      <c r="E496" s="15"/>
+      <c r="C496" s="12"/>
+      <c r="E496" s="13"/>
     </row>
     <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C497" s="14"/>
-      <c r="E497" s="15"/>
+      <c r="C497" s="12"/>
+      <c r="E497" s="13"/>
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C498" s="14"/>
-      <c r="E498" s="15"/>
+      <c r="C498" s="12"/>
+      <c r="E498" s="13"/>
     </row>
     <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C499" s="14"/>
-      <c r="E499" s="15"/>
+      <c r="C499" s="12"/>
+      <c r="E499" s="13"/>
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C500" s="14"/>
-      <c r="E500" s="15"/>
+      <c r="C500" s="12"/>
+      <c r="E500" s="13"/>
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C501" s="14"/>
-      <c r="E501" s="15"/>
+      <c r="C501" s="12"/>
+      <c r="E501" s="13"/>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C502" s="14"/>
-      <c r="E502" s="15"/>
+      <c r="C502" s="12"/>
+      <c r="E502" s="13"/>
     </row>
     <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C503" s="14"/>
-      <c r="E503" s="15"/>
+      <c r="C503" s="12"/>
+      <c r="E503" s="13"/>
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C504" s="14"/>
-      <c r="E504" s="15"/>
+      <c r="C504" s="12"/>
+      <c r="E504" s="13"/>
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C505" s="14"/>
-      <c r="E505" s="15"/>
+      <c r="C505" s="12"/>
+      <c r="E505" s="13"/>
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C506" s="14"/>
-      <c r="E506" s="15"/>
+      <c r="C506" s="12"/>
+      <c r="E506" s="13"/>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C507" s="14"/>
-      <c r="E507" s="15"/>
+      <c r="C507" s="12"/>
+      <c r="E507" s="13"/>
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C508" s="14"/>
-      <c r="E508" s="15"/>
+      <c r="C508" s="12"/>
+      <c r="E508" s="13"/>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C509" s="14"/>
-      <c r="E509" s="15"/>
+      <c r="C509" s="12"/>
+      <c r="E509" s="13"/>
     </row>
     <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C510" s="14"/>
-      <c r="E510" s="15"/>
+      <c r="C510" s="12"/>
+      <c r="E510" s="13"/>
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C511" s="14"/>
-      <c r="E511" s="15"/>
+      <c r="C511" s="12"/>
+      <c r="E511" s="13"/>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C512" s="14"/>
-      <c r="E512" s="15"/>
+      <c r="C512" s="12"/>
+      <c r="E512" s="13"/>
     </row>
     <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C513" s="14"/>
-      <c r="E513" s="15"/>
+      <c r="C513" s="12"/>
+      <c r="E513" s="13"/>
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C514" s="14"/>
-      <c r="E514" s="15"/>
+      <c r="C514" s="12"/>
+      <c r="E514" s="13"/>
     </row>
     <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C515" s="14"/>
-      <c r="E515" s="15"/>
+      <c r="C515" s="12"/>
+      <c r="E515" s="13"/>
     </row>
     <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C516" s="14"/>
-      <c r="E516" s="15"/>
+      <c r="C516" s="12"/>
+      <c r="E516" s="13"/>
     </row>
     <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C517" s="14"/>
-      <c r="E517" s="15"/>
+      <c r="C517" s="12"/>
+      <c r="E517" s="13"/>
     </row>
     <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C518" s="14"/>
-      <c r="E518" s="15"/>
+      <c r="C518" s="12"/>
+      <c r="E518" s="13"/>
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C519" s="14"/>
-      <c r="E519" s="15"/>
+      <c r="C519" s="12"/>
+      <c r="E519" s="13"/>
     </row>
     <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C520" s="14"/>
-      <c r="E520" s="15"/>
+      <c r="C520" s="12"/>
+      <c r="E520" s="13"/>
     </row>
     <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C521" s="14"/>
-      <c r="E521" s="15"/>
+      <c r="C521" s="12"/>
+      <c r="E521" s="13"/>
     </row>
     <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C522" s="14"/>
-      <c r="E522" s="15"/>
+      <c r="C522" s="12"/>
+      <c r="E522" s="13"/>
     </row>
     <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C523" s="14"/>
-      <c r="E523" s="15"/>
+      <c r="C523" s="12"/>
+      <c r="E523" s="13"/>
     </row>
     <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C524" s="14"/>
-      <c r="E524" s="15"/>
+      <c r="C524" s="12"/>
+      <c r="E524" s="13"/>
     </row>
     <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C525" s="14"/>
-      <c r="E525" s="15"/>
+      <c r="C525" s="12"/>
+      <c r="E525" s="13"/>
     </row>
     <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C526" s="14"/>
-      <c r="E526" s="15"/>
+      <c r="C526" s="12"/>
+      <c r="E526" s="13"/>
     </row>
     <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C527" s="14"/>
-      <c r="E527" s="15"/>
+      <c r="C527" s="12"/>
+      <c r="E527" s="13"/>
     </row>
     <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C528" s="14"/>
-      <c r="E528" s="15"/>
+      <c r="C528" s="12"/>
+      <c r="E528" s="13"/>
     </row>
     <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C529" s="14"/>
-      <c r="E529" s="15"/>
+      <c r="C529" s="12"/>
+      <c r="E529" s="13"/>
     </row>
     <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C530" s="14"/>
-      <c r="E530" s="15"/>
+      <c r="C530" s="12"/>
+      <c r="E530" s="13"/>
     </row>
     <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C531" s="14"/>
-      <c r="E531" s="15"/>
+      <c r="C531" s="12"/>
+      <c r="E531" s="13"/>
     </row>
     <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C532" s="14"/>
-      <c r="E532" s="15"/>
+      <c r="C532" s="12"/>
+      <c r="E532" s="13"/>
     </row>
     <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C533" s="14"/>
-      <c r="E533" s="15"/>
+      <c r="C533" s="12"/>
+      <c r="E533" s="13"/>
     </row>
     <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C534" s="14"/>
-      <c r="E534" s="15"/>
+      <c r="C534" s="12"/>
+      <c r="E534" s="13"/>
     </row>
     <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C535" s="14"/>
-      <c r="E535" s="15"/>
+      <c r="C535" s="12"/>
+      <c r="E535" s="13"/>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C536" s="14"/>
-      <c r="E536" s="15"/>
+      <c r="C536" s="12"/>
+      <c r="E536" s="13"/>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C537" s="14"/>
-      <c r="E537" s="15"/>
+      <c r="C537" s="12"/>
+      <c r="E537" s="13"/>
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C538" s="14"/>
-      <c r="E538" s="15"/>
+      <c r="C538" s="12"/>
+      <c r="E538" s="13"/>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C539" s="14"/>
-      <c r="E539" s="15"/>
+      <c r="C539" s="12"/>
+      <c r="E539" s="13"/>
     </row>
     <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C540" s="14"/>
-      <c r="E540" s="15"/>
+      <c r="C540" s="12"/>
+      <c r="E540" s="13"/>
     </row>
     <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C541" s="14"/>
-      <c r="E541" s="15"/>
+      <c r="C541" s="12"/>
+      <c r="E541" s="13"/>
     </row>
     <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C542" s="14"/>
-      <c r="E542" s="15"/>
+      <c r="C542" s="12"/>
+      <c r="E542" s="13"/>
     </row>
     <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C543" s="14"/>
-      <c r="E543" s="15"/>
+      <c r="C543" s="12"/>
+      <c r="E543" s="13"/>
     </row>
     <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C544" s="14"/>
-      <c r="E544" s="15"/>
+      <c r="C544" s="12"/>
+      <c r="E544" s="13"/>
     </row>
     <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C545" s="14"/>
-      <c r="E545" s="15"/>
+      <c r="C545" s="12"/>
+      <c r="E545" s="13"/>
     </row>
     <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C546" s="14"/>
-      <c r="E546" s="15"/>
+      <c r="C546" s="12"/>
+      <c r="E546" s="13"/>
     </row>
     <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C547" s="14"/>
-      <c r="E547" s="15"/>
+      <c r="C547" s="12"/>
+      <c r="E547" s="13"/>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C548" s="14"/>
-      <c r="E548" s="15"/>
+      <c r="C548" s="12"/>
+      <c r="E548" s="13"/>
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C549" s="14"/>
-      <c r="E549" s="15"/>
+      <c r="C549" s="12"/>
+      <c r="E549" s="13"/>
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C550" s="14"/>
-      <c r="E550" s="15"/>
+      <c r="C550" s="12"/>
+      <c r="E550" s="13"/>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C551" s="14"/>
-      <c r="E551" s="15"/>
+      <c r="C551" s="12"/>
+      <c r="E551" s="13"/>
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C552" s="14"/>
-      <c r="E552" s="15"/>
+      <c r="C552" s="12"/>
+      <c r="E552" s="13"/>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C553" s="14"/>
-      <c r="E553" s="15"/>
+      <c r="C553" s="12"/>
+      <c r="E553" s="13"/>
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C554" s="14"/>
-      <c r="E554" s="15"/>
+      <c r="C554" s="12"/>
+      <c r="E554" s="13"/>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C555" s="14"/>
-      <c r="E555" s="15"/>
+      <c r="C555" s="12"/>
+      <c r="E555" s="13"/>
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C556" s="14"/>
-      <c r="E556" s="15"/>
+      <c r="C556" s="12"/>
+      <c r="E556" s="13"/>
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C557" s="14"/>
-      <c r="E557" s="15"/>
+      <c r="C557" s="12"/>
+      <c r="E557" s="13"/>
     </row>
     <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C558" s="14"/>
-      <c r="E558" s="15"/>
+      <c r="C558" s="12"/>
+      <c r="E558" s="13"/>
     </row>
     <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C559" s="14"/>
-      <c r="E559" s="15"/>
+      <c r="C559" s="12"/>
+      <c r="E559" s="13"/>
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C560" s="14"/>
-      <c r="E560" s="15"/>
+      <c r="C560" s="12"/>
+      <c r="E560" s="13"/>
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C561" s="14"/>
-      <c r="E561" s="15"/>
+      <c r="C561" s="12"/>
+      <c r="E561" s="13"/>
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C562" s="14"/>
-      <c r="E562" s="15"/>
+      <c r="C562" s="12"/>
+      <c r="E562" s="13"/>
     </row>
     <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C563" s="14"/>
-      <c r="E563" s="15"/>
+      <c r="C563" s="12"/>
+      <c r="E563" s="13"/>
     </row>
     <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C564" s="14"/>
-      <c r="E564" s="15"/>
+      <c r="C564" s="12"/>
+      <c r="E564" s="13"/>
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C565" s="14"/>
-      <c r="E565" s="15"/>
+      <c r="C565" s="12"/>
+      <c r="E565" s="13"/>
     </row>
     <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C566" s="14"/>
-      <c r="E566" s="15"/>
+      <c r="C566" s="12"/>
+      <c r="E566" s="13"/>
     </row>
     <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C567" s="14"/>
-      <c r="E567" s="15"/>
+      <c r="C567" s="12"/>
+      <c r="E567" s="13"/>
     </row>
     <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C568" s="14"/>
-      <c r="E568" s="15"/>
+      <c r="C568" s="12"/>
+      <c r="E568" s="13"/>
     </row>
     <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C569" s="14"/>
-      <c r="E569" s="15"/>
+      <c r="C569" s="12"/>
+      <c r="E569" s="13"/>
     </row>
     <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C570" s="14"/>
-      <c r="E570" s="15"/>
+      <c r="C570" s="12"/>
+      <c r="E570" s="13"/>
     </row>
     <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C571" s="14"/>
-      <c r="E571" s="15"/>
+      <c r="C571" s="12"/>
+      <c r="E571" s="13"/>
     </row>
     <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C572" s="14"/>
-      <c r="E572" s="15"/>
+      <c r="C572" s="12"/>
+      <c r="E572" s="13"/>
     </row>
     <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C573" s="14"/>
-      <c r="E573" s="15"/>
+      <c r="C573" s="12"/>
+      <c r="E573" s="13"/>
     </row>
     <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C574" s="14"/>
-      <c r="E574" s="15"/>
+      <c r="C574" s="12"/>
+      <c r="E574" s="13"/>
     </row>
     <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C575" s="14"/>
-      <c r="E575" s="15"/>
+      <c r="C575" s="12"/>
+      <c r="E575" s="13"/>
     </row>
     <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C576" s="14"/>
-      <c r="E576" s="15"/>
+      <c r="C576" s="12"/>
+      <c r="E576" s="13"/>
     </row>
     <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C577" s="14"/>
-      <c r="E577" s="15"/>
+      <c r="C577" s="12"/>
+      <c r="E577" s="13"/>
     </row>
     <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C578" s="14"/>
-      <c r="E578" s="15"/>
+      <c r="C578" s="12"/>
+      <c r="E578" s="13"/>
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C579" s="14"/>
-      <c r="E579" s="15"/>
+      <c r="C579" s="12"/>
+      <c r="E579" s="13"/>
     </row>
     <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C580" s="14"/>
-      <c r="E580" s="15"/>
+      <c r="C580" s="12"/>
+      <c r="E580" s="13"/>
     </row>
     <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C581" s="14"/>
-      <c r="E581" s="15"/>
+      <c r="C581" s="12"/>
+      <c r="E581" s="13"/>
     </row>
     <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C582" s="14"/>
-      <c r="E582" s="15"/>
+      <c r="C582" s="12"/>
+      <c r="E582" s="13"/>
     </row>
     <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C583" s="14"/>
-      <c r="E583" s="15"/>
+      <c r="C583" s="12"/>
+      <c r="E583" s="13"/>
     </row>
     <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C584" s="14"/>
-      <c r="E584" s="15"/>
+      <c r="C584" s="12"/>
+      <c r="E584" s="13"/>
     </row>
     <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C585" s="14"/>
-      <c r="E585" s="15"/>
+      <c r="C585" s="12"/>
+      <c r="E585" s="13"/>
     </row>
     <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C586" s="14"/>
-      <c r="E586" s="15"/>
+      <c r="C586" s="12"/>
+      <c r="E586" s="13"/>
     </row>
     <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C587" s="14"/>
-      <c r="E587" s="15"/>
+      <c r="C587" s="12"/>
+      <c r="E587" s="13"/>
     </row>
     <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C588" s="14"/>
-      <c r="E588" s="15"/>
+      <c r="C588" s="12"/>
+      <c r="E588" s="13"/>
     </row>
     <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C589" s="14"/>
-      <c r="E589" s="15"/>
+      <c r="C589" s="12"/>
+      <c r="E589" s="13"/>
     </row>
     <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C590" s="14"/>
-      <c r="E590" s="15"/>
+      <c r="C590" s="12"/>
+      <c r="E590" s="13"/>
     </row>
     <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C591" s="14"/>
-      <c r="E591" s="15"/>
+      <c r="C591" s="12"/>
+      <c r="E591" s="13"/>
     </row>
     <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C592" s="14"/>
-      <c r="E592" s="15"/>
+      <c r="C592" s="12"/>
+      <c r="E592" s="13"/>
     </row>
     <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C593" s="14"/>
-      <c r="E593" s="15"/>
+      <c r="C593" s="12"/>
+      <c r="E593" s="13"/>
     </row>
     <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C594" s="14"/>
-      <c r="E594" s="15"/>
+      <c r="C594" s="12"/>
+      <c r="E594" s="13"/>
     </row>
     <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C595" s="14"/>
-      <c r="E595" s="15"/>
+      <c r="C595" s="12"/>
+      <c r="E595" s="13"/>
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C596" s="14"/>
-      <c r="E596" s="15"/>
+      <c r="C596" s="12"/>
+      <c r="E596" s="13"/>
     </row>
     <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C597" s="14"/>
-      <c r="E597" s="15"/>
+      <c r="C597" s="12"/>
+      <c r="E597" s="13"/>
     </row>
     <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C598" s="14"/>
-      <c r="E598" s="15"/>
+      <c r="C598" s="12"/>
+      <c r="E598" s="13"/>
     </row>
     <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C599" s="14"/>
-      <c r="E599" s="15"/>
+      <c r="C599" s="12"/>
+      <c r="E599" s="13"/>
     </row>
     <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C600" s="14"/>
-      <c r="E600" s="15"/>
+      <c r="C600" s="12"/>
+      <c r="E600" s="13"/>
     </row>
     <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C601" s="14"/>
-      <c r="E601" s="15"/>
+      <c r="C601" s="12"/>
+      <c r="E601" s="13"/>
     </row>
     <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C602" s="14"/>
-      <c r="E602" s="15"/>
+      <c r="C602" s="12"/>
+      <c r="E602" s="13"/>
     </row>
     <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C603" s="14"/>
-      <c r="E603" s="15"/>
+      <c r="C603" s="12"/>
+      <c r="E603" s="13"/>
     </row>
     <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C604" s="14"/>
-      <c r="E604" s="15"/>
+      <c r="C604" s="12"/>
+      <c r="E604" s="13"/>
     </row>
     <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C605" s="14"/>
-      <c r="E605" s="15"/>
+      <c r="C605" s="12"/>
+      <c r="E605" s="13"/>
     </row>
     <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C606" s="14"/>
-      <c r="E606" s="15"/>
+      <c r="C606" s="12"/>
+      <c r="E606" s="13"/>
     </row>
     <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C607" s="14"/>
-      <c r="E607" s="15"/>
+      <c r="C607" s="12"/>
+      <c r="E607" s="13"/>
     </row>
     <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C608" s="14"/>
-      <c r="E608" s="15"/>
+      <c r="C608" s="12"/>
+      <c r="E608" s="13"/>
     </row>
     <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C609" s="14"/>
-      <c r="E609" s="15"/>
+      <c r="C609" s="12"/>
+      <c r="E609" s="13"/>
     </row>
     <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C610" s="14"/>
-      <c r="E610" s="15"/>
+      <c r="C610" s="12"/>
+      <c r="E610" s="13"/>
     </row>
     <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C611" s="14"/>
-      <c r="E611" s="15"/>
+      <c r="C611" s="12"/>
+      <c r="E611" s="13"/>
     </row>
     <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C612" s="14"/>
-      <c r="E612" s="15"/>
+      <c r="C612" s="12"/>
+      <c r="E612" s="13"/>
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C613" s="14"/>
-      <c r="E613" s="15"/>
+      <c r="C613" s="12"/>
+      <c r="E613" s="13"/>
     </row>
     <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C614" s="14"/>
-      <c r="E614" s="15"/>
+      <c r="C614" s="12"/>
+      <c r="E614" s="13"/>
     </row>
     <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C615" s="14"/>
-      <c r="E615" s="15"/>
+      <c r="C615" s="12"/>
+      <c r="E615" s="13"/>
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C616" s="14"/>
-      <c r="E616" s="15"/>
+      <c r="C616" s="12"/>
+      <c r="E616" s="13"/>
     </row>
     <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C617" s="14"/>
-      <c r="E617" s="15"/>
+      <c r="C617" s="12"/>
+      <c r="E617" s="13"/>
     </row>
     <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C618" s="14"/>
-      <c r="E618" s="15"/>
+      <c r="C618" s="12"/>
+      <c r="E618" s="13"/>
     </row>
     <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C619" s="14"/>
-      <c r="E619" s="15"/>
+      <c r="C619" s="12"/>
+      <c r="E619" s="13"/>
     </row>
     <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C620" s="14"/>
-      <c r="E620" s="15"/>
+      <c r="C620" s="12"/>
+      <c r="E620" s="13"/>
     </row>
     <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C621" s="14"/>
-      <c r="E621" s="15"/>
+      <c r="C621" s="12"/>
+      <c r="E621" s="13"/>
     </row>
     <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C622" s="14"/>
-      <c r="E622" s="15"/>
+      <c r="C622" s="12"/>
+      <c r="E622" s="13"/>
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C623" s="14"/>
-      <c r="E623" s="15"/>
+      <c r="C623" s="12"/>
+      <c r="E623" s="13"/>
     </row>
     <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C624" s="14"/>
-      <c r="E624" s="15"/>
+      <c r="C624" s="12"/>
+      <c r="E624" s="13"/>
     </row>
     <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C625" s="14"/>
-      <c r="E625" s="15"/>
+      <c r="C625" s="12"/>
+      <c r="E625" s="13"/>
     </row>
     <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C626" s="14"/>
-      <c r="E626" s="15"/>
+      <c r="C626" s="12"/>
+      <c r="E626" s="13"/>
     </row>
     <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C627" s="14"/>
-      <c r="E627" s="15"/>
+      <c r="C627" s="12"/>
+      <c r="E627" s="13"/>
     </row>
     <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C628" s="14"/>
-      <c r="E628" s="15"/>
+      <c r="C628" s="12"/>
+      <c r="E628" s="13"/>
     </row>
     <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C629" s="14"/>
-      <c r="E629" s="15"/>
+      <c r="C629" s="12"/>
+      <c r="E629" s="13"/>
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C630" s="14"/>
-      <c r="E630" s="15"/>
+      <c r="C630" s="12"/>
+      <c r="E630" s="13"/>
     </row>
     <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C631" s="14"/>
-      <c r="E631" s="15"/>
+      <c r="C631" s="12"/>
+      <c r="E631" s="13"/>
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C632" s="14"/>
-      <c r="E632" s="15"/>
+      <c r="C632" s="12"/>
+      <c r="E632" s="13"/>
     </row>
     <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C633" s="14"/>
-      <c r="E633" s="15"/>
+      <c r="C633" s="12"/>
+      <c r="E633" s="13"/>
     </row>
     <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C634" s="14"/>
-      <c r="E634" s="15"/>
+      <c r="C634" s="12"/>
+      <c r="E634" s="13"/>
     </row>
     <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C635" s="14"/>
-      <c r="E635" s="15"/>
+      <c r="C635" s="12"/>
+      <c r="E635" s="13"/>
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C636" s="14"/>
-      <c r="E636" s="15"/>
+      <c r="C636" s="12"/>
+      <c r="E636" s="13"/>
     </row>
     <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C637" s="14"/>
-      <c r="E637" s="15"/>
+      <c r="C637" s="12"/>
+      <c r="E637" s="13"/>
     </row>
     <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C638" s="14"/>
-      <c r="E638" s="15"/>
+      <c r="C638" s="12"/>
+      <c r="E638" s="13"/>
     </row>
     <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C639" s="14"/>
-      <c r="E639" s="15"/>
+      <c r="C639" s="12"/>
+      <c r="E639" s="13"/>
     </row>
     <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C640" s="14"/>
-      <c r="E640" s="15"/>
+      <c r="C640" s="12"/>
+      <c r="E640" s="13"/>
     </row>
     <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C641" s="14"/>
-      <c r="E641" s="15"/>
+      <c r="C641" s="12"/>
+      <c r="E641" s="13"/>
     </row>
     <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C642" s="14"/>
-      <c r="E642" s="15"/>
+      <c r="C642" s="12"/>
+      <c r="E642" s="13"/>
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C643" s="14"/>
-      <c r="E643" s="15"/>
+      <c r="C643" s="12"/>
+      <c r="E643" s="13"/>
     </row>
     <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C644" s="14"/>
-      <c r="E644" s="15"/>
+      <c r="C644" s="12"/>
+      <c r="E644" s="13"/>
     </row>
     <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C645" s="14"/>
-      <c r="E645" s="15"/>
+      <c r="C645" s="12"/>
+      <c r="E645" s="13"/>
     </row>
     <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C646" s="14"/>
-      <c r="E646" s="15"/>
+      <c r="C646" s="12"/>
+      <c r="E646" s="13"/>
     </row>
     <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C647" s="14"/>
-      <c r="E647" s="15"/>
+      <c r="C647" s="12"/>
+      <c r="E647" s="13"/>
     </row>
     <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C648" s="14"/>
-      <c r="E648" s="15"/>
+      <c r="C648" s="12"/>
+      <c r="E648" s="13"/>
     </row>
     <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C649" s="14"/>
-      <c r="E649" s="15"/>
+      <c r="C649" s="12"/>
+      <c r="E649" s="13"/>
     </row>
     <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C650" s="14"/>
-      <c r="E650" s="15"/>
+      <c r="C650" s="12"/>
+      <c r="E650" s="13"/>
     </row>
     <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C651" s="14"/>
-      <c r="E651" s="15"/>
+      <c r="C651" s="12"/>
+      <c r="E651" s="13"/>
     </row>
     <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C652" s="14"/>
-      <c r="E652" s="15"/>
+      <c r="C652" s="12"/>
+      <c r="E652" s="13"/>
     </row>
     <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C653" s="14"/>
-      <c r="E653" s="15"/>
+      <c r="C653" s="12"/>
+      <c r="E653" s="13"/>
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C654" s="14"/>
-      <c r="E654" s="15"/>
+      <c r="C654" s="12"/>
+      <c r="E654" s="13"/>
     </row>
     <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C655" s="14"/>
-      <c r="E655" s="15"/>
+      <c r="C655" s="12"/>
+      <c r="E655" s="13"/>
     </row>
     <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C656" s="14"/>
-      <c r="E656" s="15"/>
+      <c r="C656" s="12"/>
+      <c r="E656" s="13"/>
     </row>
     <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C657" s="14"/>
-      <c r="E657" s="15"/>
+      <c r="C657" s="12"/>
+      <c r="E657" s="13"/>
     </row>
     <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C658" s="14"/>
-      <c r="E658" s="15"/>
+      <c r="C658" s="12"/>
+      <c r="E658" s="13"/>
     </row>
     <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C659" s="14"/>
-      <c r="E659" s="15"/>
+      <c r="C659" s="12"/>
+      <c r="E659" s="13"/>
     </row>
     <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C660" s="14"/>
-      <c r="E660" s="15"/>
+      <c r="C660" s="12"/>
+      <c r="E660" s="13"/>
     </row>
     <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C661" s="14"/>
-      <c r="E661" s="15"/>
+      <c r="C661" s="12"/>
+      <c r="E661" s="13"/>
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C662" s="14"/>
-      <c r="E662" s="15"/>
+      <c r="C662" s="12"/>
+      <c r="E662" s="13"/>
     </row>
     <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C663" s="14"/>
-      <c r="E663" s="15"/>
+      <c r="C663" s="12"/>
+      <c r="E663" s="13"/>
     </row>
     <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C664" s="14"/>
-      <c r="E664" s="15"/>
+      <c r="C664" s="12"/>
+      <c r="E664" s="13"/>
     </row>
     <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C665" s="14"/>
-      <c r="E665" s="15"/>
+      <c r="C665" s="12"/>
+      <c r="E665" s="13"/>
     </row>
     <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C666" s="14"/>
-      <c r="E666" s="15"/>
+      <c r="C666" s="12"/>
+      <c r="E666" s="13"/>
     </row>
     <row r="667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C667" s="14"/>
-      <c r="E667" s="15"/>
+      <c r="C667" s="12"/>
+      <c r="E667" s="13"/>
     </row>
     <row r="668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C668" s="14"/>
-      <c r="E668" s="15"/>
+      <c r="C668" s="12"/>
+      <c r="E668" s="13"/>
     </row>
     <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C669" s="14"/>
-      <c r="E669" s="15"/>
+      <c r="C669" s="12"/>
+      <c r="E669" s="13"/>
     </row>
     <row r="670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C670" s="14"/>
-      <c r="E670" s="15"/>
+      <c r="C670" s="12"/>
+      <c r="E670" s="13"/>
     </row>
     <row r="671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C671" s="14"/>
-      <c r="E671" s="15"/>
+      <c r="C671" s="12"/>
+      <c r="E671" s="13"/>
     </row>
     <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C672" s="14"/>
-      <c r="E672" s="15"/>
+      <c r="C672" s="12"/>
+      <c r="E672" s="13"/>
     </row>
     <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C673" s="14"/>
-      <c r="E673" s="15"/>
+      <c r="C673" s="12"/>
+      <c r="E673" s="13"/>
     </row>
     <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C674" s="14"/>
-      <c r="E674" s="15"/>
+      <c r="C674" s="12"/>
+      <c r="E674" s="13"/>
     </row>
     <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C675" s="14"/>
-      <c r="E675" s="15"/>
+      <c r="C675" s="12"/>
+      <c r="E675" s="13"/>
     </row>
     <row r="676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C676" s="14"/>
-      <c r="E676" s="15"/>
+      <c r="C676" s="12"/>
+      <c r="E676" s="13"/>
     </row>
     <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C677" s="14"/>
-      <c r="E677" s="15"/>
+      <c r="C677" s="12"/>
+      <c r="E677" s="13"/>
     </row>
     <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C678" s="14"/>
-      <c r="E678" s="15"/>
+      <c r="C678" s="12"/>
+      <c r="E678" s="13"/>
     </row>
     <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C679" s="14"/>
-      <c r="E679" s="15"/>
+      <c r="C679" s="12"/>
+      <c r="E679" s="13"/>
     </row>
     <row r="680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C680" s="14"/>
-      <c r="E680" s="15"/>
+      <c r="C680" s="12"/>
+      <c r="E680" s="13"/>
     </row>
     <row r="681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C681" s="14"/>
-      <c r="E681" s="15"/>
+      <c r="C681" s="12"/>
+      <c r="E681" s="13"/>
     </row>
     <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C682" s="14"/>
-      <c r="E682" s="15"/>
+      <c r="C682" s="12"/>
+      <c r="E682" s="13"/>
     </row>
     <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C683" s="14"/>
-      <c r="E683" s="15"/>
+      <c r="C683" s="12"/>
+      <c r="E683" s="13"/>
     </row>
     <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C684" s="14"/>
-      <c r="E684" s="15"/>
+      <c r="C684" s="12"/>
+      <c r="E684" s="13"/>
     </row>
     <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C685" s="14"/>
-      <c r="E685" s="15"/>
+      <c r="C685" s="12"/>
+      <c r="E685" s="13"/>
     </row>
     <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C686" s="14"/>
-      <c r="E686" s="15"/>
+      <c r="C686" s="12"/>
+      <c r="E686" s="13"/>
     </row>
     <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C687" s="14"/>
-      <c r="E687" s="15"/>
+      <c r="C687" s="12"/>
+      <c r="E687" s="13"/>
     </row>
     <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C688" s="14"/>
-      <c r="E688" s="15"/>
+      <c r="C688" s="12"/>
+      <c r="E688" s="13"/>
     </row>
     <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C689" s="14"/>
-      <c r="E689" s="15"/>
+      <c r="C689" s="12"/>
+      <c r="E689" s="13"/>
     </row>
     <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C690" s="14"/>
-      <c r="E690" s="15"/>
+      <c r="C690" s="12"/>
+      <c r="E690" s="13"/>
     </row>
     <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C691" s="14"/>
-      <c r="E691" s="15"/>
+      <c r="C691" s="12"/>
+      <c r="E691" s="13"/>
     </row>
     <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C692" s="14"/>
-      <c r="E692" s="15"/>
+      <c r="C692" s="12"/>
+      <c r="E692" s="13"/>
     </row>
     <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C693" s="14"/>
-      <c r="E693" s="15"/>
+      <c r="C693" s="12"/>
+      <c r="E693" s="13"/>
     </row>
     <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C694" s="14"/>
-      <c r="E694" s="15"/>
+      <c r="C694" s="12"/>
+      <c r="E694" s="13"/>
     </row>
     <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C695" s="14"/>
-      <c r="E695" s="15"/>
+      <c r="C695" s="12"/>
+      <c r="E695" s="13"/>
     </row>
     <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C696" s="14"/>
-      <c r="E696" s="15"/>
+      <c r="C696" s="12"/>
+      <c r="E696" s="13"/>
     </row>
     <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C697" s="14"/>
-      <c r="E697" s="15"/>
+      <c r="C697" s="12"/>
+      <c r="E697" s="13"/>
     </row>
     <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C698" s="14"/>
-      <c r="E698" s="15"/>
+      <c r="C698" s="12"/>
+      <c r="E698" s="13"/>
     </row>
     <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C699" s="14"/>
-      <c r="E699" s="15"/>
+      <c r="C699" s="12"/>
+      <c r="E699" s="13"/>
     </row>
     <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C700" s="14"/>
-      <c r="E700" s="15"/>
+      <c r="C700" s="12"/>
+      <c r="E700" s="13"/>
     </row>
     <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C701" s="14"/>
-      <c r="E701" s="15"/>
+      <c r="C701" s="12"/>
+      <c r="E701" s="13"/>
     </row>
     <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C702" s="14"/>
-      <c r="E702" s="15"/>
+      <c r="C702" s="12"/>
+      <c r="E702" s="13"/>
     </row>
     <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C703" s="14"/>
-      <c r="E703" s="15"/>
+      <c r="C703" s="12"/>
+      <c r="E703" s="13"/>
     </row>
     <row r="704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C704" s="14"/>
-      <c r="E704" s="15"/>
+      <c r="C704" s="12"/>
+      <c r="E704" s="13"/>
     </row>
     <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C705" s="14"/>
-      <c r="E705" s="15"/>
+      <c r="C705" s="12"/>
+      <c r="E705" s="13"/>
     </row>
     <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C706" s="14"/>
-      <c r="E706" s="15"/>
+      <c r="C706" s="12"/>
+      <c r="E706" s="13"/>
     </row>
     <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C707" s="14"/>
-      <c r="E707" s="15"/>
+      <c r="C707" s="12"/>
+      <c r="E707" s="13"/>
     </row>
     <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C708" s="14"/>
-      <c r="E708" s="15"/>
+      <c r="C708" s="12"/>
+      <c r="E708" s="13"/>
     </row>
     <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C709" s="14"/>
-      <c r="E709" s="15"/>
+      <c r="C709" s="12"/>
+      <c r="E709" s="13"/>
     </row>
     <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C710" s="14"/>
-      <c r="E710" s="15"/>
+      <c r="C710" s="12"/>
+      <c r="E710" s="13"/>
     </row>
     <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C711" s="14"/>
-      <c r="E711" s="15"/>
+      <c r="C711" s="12"/>
+      <c r="E711" s="13"/>
     </row>
     <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C712" s="14"/>
-      <c r="E712" s="15"/>
+      <c r="C712" s="12"/>
+      <c r="E712" s="13"/>
     </row>
     <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C713" s="14"/>
-      <c r="E713" s="15"/>
+      <c r="C713" s="12"/>
+      <c r="E713" s="13"/>
     </row>
     <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C714" s="14"/>
-      <c r="E714" s="15"/>
+      <c r="C714" s="12"/>
+      <c r="E714" s="13"/>
     </row>
     <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C715" s="14"/>
-      <c r="E715" s="15"/>
+      <c r="C715" s="12"/>
+      <c r="E715" s="13"/>
     </row>
     <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C716" s="14"/>
-      <c r="E716" s="15"/>
+      <c r="C716" s="12"/>
+      <c r="E716" s="13"/>
     </row>
     <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C717" s="14"/>
-      <c r="E717" s="15"/>
+      <c r="C717" s="12"/>
+      <c r="E717" s="13"/>
     </row>
     <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C718" s="14"/>
-      <c r="E718" s="15"/>
+      <c r="C718" s="12"/>
+      <c r="E718" s="13"/>
     </row>
     <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C719" s="14"/>
-      <c r="E719" s="15"/>
+      <c r="C719" s="12"/>
+      <c r="E719" s="13"/>
     </row>
     <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C720" s="14"/>
-      <c r="E720" s="15"/>
+      <c r="C720" s="12"/>
+      <c r="E720" s="13"/>
     </row>
     <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C721" s="14"/>
-      <c r="E721" s="15"/>
+      <c r="C721" s="12"/>
+      <c r="E721" s="13"/>
     </row>
     <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C722" s="14"/>
-      <c r="E722" s="15"/>
+      <c r="C722" s="12"/>
+      <c r="E722" s="13"/>
     </row>
     <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C723" s="14"/>
-      <c r="E723" s="15"/>
+      <c r="C723" s="12"/>
+      <c r="E723" s="13"/>
     </row>
     <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C724" s="14"/>
-      <c r="E724" s="15"/>
+      <c r="C724" s="12"/>
+      <c r="E724" s="13"/>
     </row>
     <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C725" s="14"/>
-      <c r="E725" s="15"/>
+      <c r="C725" s="12"/>
+      <c r="E725" s="13"/>
     </row>
     <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C726" s="14"/>
-      <c r="E726" s="15"/>
+      <c r="C726" s="12"/>
+      <c r="E726" s="13"/>
     </row>
     <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C727" s="14"/>
-      <c r="E727" s="15"/>
+      <c r="C727" s="12"/>
+      <c r="E727" s="13"/>
     </row>
     <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C728" s="14"/>
-      <c r="E728" s="15"/>
+      <c r="C728" s="12"/>
+      <c r="E728" s="13"/>
     </row>
     <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C729" s="14"/>
-      <c r="E729" s="15"/>
+      <c r="C729" s="12"/>
+      <c r="E729" s="13"/>
     </row>
     <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C730" s="14"/>
-      <c r="E730" s="15"/>
+      <c r="C730" s="12"/>
+      <c r="E730" s="13"/>
     </row>
     <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C731" s="14"/>
-      <c r="E731" s="15"/>
+      <c r="C731" s="12"/>
+      <c r="E731" s="13"/>
     </row>
     <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C732" s="14"/>
-      <c r="E732" s="15"/>
+      <c r="C732" s="12"/>
+      <c r="E732" s="13"/>
     </row>
     <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C733" s="14"/>
-      <c r="E733" s="15"/>
+      <c r="C733" s="12"/>
+      <c r="E733" s="13"/>
     </row>
     <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C734" s="14"/>
-      <c r="E734" s="15"/>
+      <c r="C734" s="12"/>
+      <c r="E734" s="13"/>
     </row>
     <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C735" s="14"/>
-      <c r="E735" s="15"/>
+      <c r="C735" s="12"/>
+      <c r="E735" s="13"/>
     </row>
     <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C736" s="14"/>
-      <c r="E736" s="15"/>
+      <c r="C736" s="12"/>
+      <c r="E736" s="13"/>
     </row>
     <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C737" s="14"/>
-      <c r="E737" s="15"/>
+      <c r="C737" s="12"/>
+      <c r="E737" s="13"/>
     </row>
     <row r="738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C738" s="14"/>
-      <c r="E738" s="15"/>
+      <c r="C738" s="12"/>
+      <c r="E738" s="13"/>
     </row>
     <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C739" s="14"/>
-      <c r="E739" s="15"/>
+      <c r="C739" s="12"/>
+      <c r="E739" s="13"/>
     </row>
     <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C740" s="14"/>
-      <c r="E740" s="15"/>
+      <c r="C740" s="12"/>
+      <c r="E740" s="13"/>
     </row>
     <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C741" s="14"/>
-      <c r="E741" s="15"/>
+      <c r="C741" s="12"/>
+      <c r="E741" s="13"/>
     </row>
     <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C742" s="14"/>
-      <c r="E742" s="15"/>
+      <c r="C742" s="12"/>
+      <c r="E742" s="13"/>
     </row>
     <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C743" s="14"/>
-      <c r="E743" s="15"/>
+      <c r="C743" s="12"/>
+      <c r="E743" s="13"/>
     </row>
     <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C744" s="14"/>
-      <c r="E744" s="15"/>
+      <c r="C744" s="12"/>
+      <c r="E744" s="13"/>
     </row>
     <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C745" s="14"/>
-      <c r="E745" s="15"/>
+      <c r="C745" s="12"/>
+      <c r="E745" s="13"/>
     </row>
     <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C746" s="14"/>
-      <c r="E746" s="15"/>
+      <c r="C746" s="12"/>
+      <c r="E746" s="13"/>
     </row>
     <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C747" s="14"/>
-      <c r="E747" s="15"/>
+      <c r="C747" s="12"/>
+      <c r="E747" s="13"/>
     </row>
     <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C748" s="14"/>
-      <c r="E748" s="15"/>
+      <c r="C748" s="12"/>
+      <c r="E748" s="13"/>
     </row>
     <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C749" s="14"/>
-      <c r="E749" s="15"/>
+      <c r="C749" s="12"/>
+      <c r="E749" s="13"/>
     </row>
     <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C750" s="14"/>
-      <c r="E750" s="15"/>
+      <c r="C750" s="12"/>
+      <c r="E750" s="13"/>
     </row>
     <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C751" s="14"/>
-      <c r="E751" s="15"/>
+      <c r="C751" s="12"/>
+      <c r="E751" s="13"/>
     </row>
     <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C752" s="14"/>
-      <c r="E752" s="15"/>
+      <c r="C752" s="12"/>
+      <c r="E752" s="13"/>
     </row>
     <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C753" s="14"/>
-      <c r="E753" s="15"/>
+      <c r="C753" s="12"/>
+      <c r="E753" s="13"/>
     </row>
     <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C754" s="14"/>
-      <c r="E754" s="15"/>
+      <c r="C754" s="12"/>
+      <c r="E754" s="13"/>
     </row>
     <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C755" s="14"/>
-      <c r="E755" s="15"/>
+      <c r="C755" s="12"/>
+      <c r="E755" s="13"/>
     </row>
     <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C756" s="14"/>
-      <c r="E756" s="15"/>
+      <c r="C756" s="12"/>
+      <c r="E756" s="13"/>
     </row>
     <row r="757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C757" s="14"/>
-      <c r="E757" s="15"/>
+      <c r="C757" s="12"/>
+      <c r="E757" s="13"/>
     </row>
     <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C758" s="14"/>
-      <c r="E758" s="15"/>
+      <c r="C758" s="12"/>
+      <c r="E758" s="13"/>
     </row>
     <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C759" s="14"/>
-      <c r="E759" s="15"/>
+      <c r="C759" s="12"/>
+      <c r="E759" s="13"/>
     </row>
     <row r="760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C760" s="14"/>
-      <c r="E760" s="15"/>
+      <c r="C760" s="12"/>
+      <c r="E760" s="13"/>
     </row>
     <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C761" s="14"/>
-      <c r="E761" s="15"/>
+      <c r="C761" s="12"/>
+      <c r="E761" s="13"/>
     </row>
     <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C762" s="14"/>
-      <c r="E762" s="15"/>
+      <c r="C762" s="12"/>
+      <c r="E762" s="13"/>
     </row>
     <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C763" s="14"/>
-      <c r="E763" s="15"/>
+      <c r="C763" s="12"/>
+      <c r="E763" s="13"/>
     </row>
     <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C764" s="14"/>
-      <c r="E764" s="15"/>
+      <c r="C764" s="12"/>
+      <c r="E764" s="13"/>
     </row>
     <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C765" s="14"/>
-      <c r="E765" s="15"/>
+      <c r="C765" s="12"/>
+      <c r="E765" s="13"/>
     </row>
     <row r="766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C766" s="14"/>
-      <c r="E766" s="15"/>
+      <c r="C766" s="12"/>
+      <c r="E766" s="13"/>
     </row>
     <row r="767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C767" s="14"/>
-      <c r="E767" s="15"/>
+      <c r="C767" s="12"/>
+      <c r="E767" s="13"/>
     </row>
     <row r="768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C768" s="14"/>
-      <c r="E768" s="15"/>
+      <c r="C768" s="12"/>
+      <c r="E768" s="13"/>
     </row>
     <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C769" s="14"/>
-      <c r="E769" s="15"/>
+      <c r="C769" s="12"/>
+      <c r="E769" s="13"/>
     </row>
     <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C770" s="14"/>
-      <c r="E770" s="15"/>
+      <c r="C770" s="12"/>
+      <c r="E770" s="13"/>
     </row>
     <row r="771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C771" s="14"/>
-      <c r="E771" s="15"/>
+      <c r="C771" s="12"/>
+      <c r="E771" s="13"/>
     </row>
     <row r="772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C772" s="14"/>
-      <c r="E772" s="15"/>
+      <c r="C772" s="12"/>
+      <c r="E772" s="13"/>
     </row>
     <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C773" s="14"/>
-      <c r="E773" s="15"/>
+      <c r="C773" s="12"/>
+      <c r="E773" s="13"/>
     </row>
     <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C774" s="14"/>
-      <c r="E774" s="15"/>
+      <c r="C774" s="12"/>
+      <c r="E774" s="13"/>
     </row>
     <row r="775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C775" s="14"/>
-      <c r="E775" s="15"/>
+      <c r="C775" s="12"/>
+      <c r="E775" s="13"/>
     </row>
     <row r="776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C776" s="14"/>
-      <c r="E776" s="15"/>
+      <c r="C776" s="12"/>
+      <c r="E776" s="13"/>
     </row>
     <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C777" s="14"/>
-      <c r="E777" s="15"/>
+      <c r="C777" s="12"/>
+      <c r="E777" s="13"/>
     </row>
     <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C778" s="14"/>
-      <c r="E778" s="15"/>
+      <c r="C778" s="12"/>
+      <c r="E778" s="13"/>
     </row>
     <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C779" s="14"/>
-      <c r="E779" s="15"/>
+      <c r="C779" s="12"/>
+      <c r="E779" s="13"/>
     </row>
     <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C780" s="14"/>
-      <c r="E780" s="15"/>
+      <c r="C780" s="12"/>
+      <c r="E780" s="13"/>
     </row>
     <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C781" s="14"/>
-      <c r="E781" s="15"/>
+      <c r="C781" s="12"/>
+      <c r="E781" s="13"/>
     </row>
     <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C782" s="14"/>
-      <c r="E782" s="15"/>
+      <c r="C782" s="12"/>
+      <c r="E782" s="13"/>
     </row>
     <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C783" s="14"/>
-      <c r="E783" s="15"/>
+      <c r="C783" s="12"/>
+      <c r="E783" s="13"/>
     </row>
     <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C784" s="14"/>
-      <c r="E784" s="15"/>
+      <c r="C784" s="12"/>
+      <c r="E784" s="13"/>
     </row>
     <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C785" s="14"/>
-      <c r="E785" s="15"/>
+      <c r="C785" s="12"/>
+      <c r="E785" s="13"/>
     </row>
     <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C786" s="14"/>
-      <c r="E786" s="15"/>
+      <c r="C786" s="12"/>
+      <c r="E786" s="13"/>
     </row>
     <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C787" s="14"/>
-      <c r="E787" s="15"/>
+      <c r="C787" s="12"/>
+      <c r="E787" s="13"/>
     </row>
     <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C788" s="14"/>
-      <c r="E788" s="15"/>
+      <c r="C788" s="12"/>
+      <c r="E788" s="13"/>
     </row>
     <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C789" s="14"/>
-      <c r="E789" s="15"/>
+      <c r="C789" s="12"/>
+      <c r="E789" s="13"/>
     </row>
     <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C790" s="14"/>
-      <c r="E790" s="15"/>
+      <c r="C790" s="12"/>
+      <c r="E790" s="13"/>
     </row>
     <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C791" s="14"/>
-      <c r="E791" s="15"/>
+      <c r="C791" s="12"/>
+      <c r="E791" s="13"/>
     </row>
     <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C792" s="14"/>
-      <c r="E792" s="15"/>
+      <c r="C792" s="12"/>
+      <c r="E792" s="13"/>
     </row>
     <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C793" s="14"/>
-      <c r="E793" s="15"/>
+      <c r="C793" s="12"/>
+      <c r="E793" s="13"/>
     </row>
     <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C794" s="14"/>
-      <c r="E794" s="15"/>
+      <c r="C794" s="12"/>
+      <c r="E794" s="13"/>
     </row>
     <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C795" s="14"/>
-      <c r="E795" s="15"/>
+      <c r="C795" s="12"/>
+      <c r="E795" s="13"/>
     </row>
     <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C796" s="14"/>
-      <c r="E796" s="15"/>
+      <c r="C796" s="12"/>
+      <c r="E796" s="13"/>
     </row>
     <row r="797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C797" s="14"/>
-      <c r="E797" s="15"/>
+      <c r="C797" s="12"/>
+      <c r="E797" s="13"/>
     </row>
     <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C798" s="14"/>
-      <c r="E798" s="15"/>
+      <c r="C798" s="12"/>
+      <c r="E798" s="13"/>
     </row>
     <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C799" s="14"/>
-      <c r="E799" s="15"/>
+      <c r="C799" s="12"/>
+      <c r="E799" s="13"/>
     </row>
     <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C800" s="14"/>
-      <c r="E800" s="15"/>
+      <c r="C800" s="12"/>
+      <c r="E800" s="13"/>
     </row>
     <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C801" s="14"/>
-      <c r="E801" s="15"/>
+      <c r="C801" s="12"/>
+      <c r="E801" s="13"/>
     </row>
     <row r="802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C802" s="14"/>
-      <c r="E802" s="15"/>
+      <c r="C802" s="12"/>
+      <c r="E802" s="13"/>
     </row>
     <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C803" s="14"/>
-      <c r="E803" s="15"/>
+      <c r="C803" s="12"/>
+      <c r="E803" s="13"/>
     </row>
     <row r="804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C804" s="14"/>
-      <c r="E804" s="15"/>
+      <c r="C804" s="12"/>
+      <c r="E804" s="13"/>
     </row>
     <row r="805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C805" s="14"/>
-      <c r="E805" s="15"/>
+      <c r="C805" s="12"/>
+      <c r="E805" s="13"/>
     </row>
     <row r="806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C806" s="14"/>
-      <c r="E806" s="15"/>
+      <c r="C806" s="12"/>
+      <c r="E806" s="13"/>
     </row>
     <row r="807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C807" s="14"/>
-      <c r="E807" s="15"/>
+      <c r="C807" s="12"/>
+      <c r="E807" s="13"/>
     </row>
     <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C808" s="14"/>
-      <c r="E808" s="15"/>
+      <c r="C808" s="12"/>
+      <c r="E808" s="13"/>
     </row>
     <row r="809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C809" s="14"/>
-      <c r="E809" s="15"/>
+      <c r="C809" s="12"/>
+      <c r="E809" s="13"/>
     </row>
     <row r="810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C810" s="14"/>
-      <c r="E810" s="15"/>
+      <c r="C810" s="12"/>
+      <c r="E810" s="13"/>
     </row>
     <row r="811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C811" s="14"/>
-      <c r="E811" s="15"/>
+      <c r="C811" s="12"/>
+      <c r="E811" s="13"/>
     </row>
     <row r="812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C812" s="14"/>
-      <c r="E812" s="15"/>
+      <c r="C812" s="12"/>
+      <c r="E812" s="13"/>
     </row>
     <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C813" s="14"/>
-      <c r="E813" s="15"/>
+      <c r="C813" s="12"/>
+      <c r="E813" s="13"/>
     </row>
     <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C814" s="14"/>
-      <c r="E814" s="15"/>
+      <c r="C814" s="12"/>
+      <c r="E814" s="13"/>
     </row>
     <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C815" s="14"/>
-      <c r="E815" s="15"/>
+      <c r="C815" s="12"/>
+      <c r="E815" s="13"/>
     </row>
     <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C816" s="14"/>
-      <c r="E816" s="15"/>
+      <c r="C816" s="12"/>
+      <c r="E816" s="13"/>
     </row>
     <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C817" s="14"/>
-      <c r="E817" s="15"/>
+      <c r="C817" s="12"/>
+      <c r="E817" s="13"/>
     </row>
     <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C818" s="14"/>
-      <c r="E818" s="15"/>
+      <c r="C818" s="12"/>
+      <c r="E818" s="13"/>
     </row>
     <row r="819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C819" s="14"/>
-      <c r="E819" s="15"/>
+      <c r="C819" s="12"/>
+      <c r="E819" s="13"/>
     </row>
     <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C820" s="14"/>
-      <c r="E820" s="15"/>
+      <c r="C820" s="12"/>
+      <c r="E820" s="13"/>
     </row>
     <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C821" s="14"/>
-      <c r="E821" s="15"/>
+      <c r="C821" s="12"/>
+      <c r="E821" s="13"/>
     </row>
     <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C822" s="14"/>
-      <c r="E822" s="15"/>
+      <c r="C822" s="12"/>
+      <c r="E822" s="13"/>
     </row>
     <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C823" s="14"/>
-      <c r="E823" s="15"/>
+      <c r="C823" s="12"/>
+      <c r="E823" s="13"/>
     </row>
     <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C824" s="14"/>
-      <c r="E824" s="15"/>
+      <c r="C824" s="12"/>
+      <c r="E824" s="13"/>
     </row>
     <row r="825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C825" s="14"/>
-      <c r="E825" s="15"/>
+      <c r="C825" s="12"/>
+      <c r="E825" s="13"/>
     </row>
     <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C826" s="14"/>
-      <c r="E826" s="15"/>
+      <c r="C826" s="12"/>
+      <c r="E826" s="13"/>
     </row>
     <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C827" s="14"/>
-      <c r="E827" s="15"/>
+      <c r="C827" s="12"/>
+      <c r="E827" s="13"/>
     </row>
     <row r="828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C828" s="14"/>
-      <c r="E828" s="15"/>
+      <c r="C828" s="12"/>
+      <c r="E828" s="13"/>
     </row>
     <row r="829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C829" s="14"/>
-      <c r="E829" s="15"/>
+      <c r="C829" s="12"/>
+      <c r="E829" s="13"/>
     </row>
     <row r="830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C830" s="14"/>
-      <c r="E830" s="15"/>
+      <c r="C830" s="12"/>
+      <c r="E830" s="13"/>
     </row>
     <row r="831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C831" s="14"/>
-      <c r="E831" s="15"/>
+      <c r="C831" s="12"/>
+      <c r="E831" s="13"/>
     </row>
     <row r="832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C832" s="14"/>
-      <c r="E832" s="15"/>
+      <c r="C832" s="12"/>
+      <c r="E832" s="13"/>
     </row>
     <row r="833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C833" s="14"/>
-      <c r="E833" s="15"/>
+      <c r="C833" s="12"/>
+      <c r="E833" s="13"/>
     </row>
     <row r="834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C834" s="14"/>
-      <c r="E834" s="15"/>
+      <c r="C834" s="12"/>
+      <c r="E834" s="13"/>
     </row>
     <row r="835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C835" s="14"/>
-      <c r="E835" s="15"/>
+      <c r="C835" s="12"/>
+      <c r="E835" s="13"/>
     </row>
     <row r="836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C836" s="14"/>
-      <c r="E836" s="15"/>
+      <c r="C836" s="12"/>
+      <c r="E836" s="13"/>
     </row>
     <row r="837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C837" s="14"/>
-      <c r="E837" s="15"/>
+      <c r="C837" s="12"/>
+      <c r="E837" s="13"/>
     </row>
     <row r="838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C838" s="14"/>
-      <c r="E838" s="15"/>
+      <c r="C838" s="12"/>
+      <c r="E838" s="13"/>
     </row>
     <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C839" s="14"/>
-      <c r="E839" s="15"/>
+      <c r="C839" s="12"/>
+      <c r="E839" s="13"/>
     </row>
     <row r="840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C840" s="14"/>
-      <c r="E840" s="15"/>
+      <c r="C840" s="12"/>
+      <c r="E840" s="13"/>
     </row>
     <row r="841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C841" s="14"/>
-      <c r="E841" s="15"/>
+      <c r="C841" s="12"/>
+      <c r="E841" s="13"/>
     </row>
     <row r="842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C842" s="14"/>
-      <c r="E842" s="15"/>
+      <c r="C842" s="12"/>
+      <c r="E842" s="13"/>
     </row>
     <row r="843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C843" s="14"/>
-      <c r="E843" s="15"/>
+      <c r="C843" s="12"/>
+      <c r="E843" s="13"/>
     </row>
     <row r="844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C844" s="14"/>
-      <c r="E844" s="15"/>
+      <c r="C844" s="12"/>
+      <c r="E844" s="13"/>
     </row>
     <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C845" s="14"/>
-      <c r="E845" s="15"/>
+      <c r="C845" s="12"/>
+      <c r="E845" s="13"/>
     </row>
     <row r="846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C846" s="14"/>
-      <c r="E846" s="15"/>
+      <c r="C846" s="12"/>
+      <c r="E846" s="13"/>
     </row>
     <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C847" s="14"/>
-      <c r="E847" s="15"/>
+      <c r="C847" s="12"/>
+      <c r="E847" s="13"/>
     </row>
     <row r="848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C848" s="14"/>
-      <c r="E848" s="15"/>
+      <c r="C848" s="12"/>
+      <c r="E848" s="13"/>
     </row>
     <row r="849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C849" s="14"/>
-      <c r="E849" s="15"/>
+      <c r="C849" s="12"/>
+      <c r="E849" s="13"/>
     </row>
     <row r="850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C850" s="14"/>
-      <c r="E850" s="15"/>
+      <c r="C850" s="12"/>
+      <c r="E850" s="13"/>
     </row>
     <row r="851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C851" s="14"/>
-      <c r="E851" s="15"/>
+      <c r="C851" s="12"/>
+      <c r="E851" s="13"/>
     </row>
     <row r="852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C852" s="14"/>
-      <c r="E852" s="15"/>
+      <c r="C852" s="12"/>
+      <c r="E852" s="13"/>
     </row>
     <row r="853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C853" s="14"/>
-      <c r="E853" s="15"/>
+      <c r="C853" s="12"/>
+      <c r="E853" s="13"/>
     </row>
     <row r="854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C854" s="14"/>
-      <c r="E854" s="15"/>
+      <c r="C854" s="12"/>
+      <c r="E854" s="13"/>
     </row>
     <row r="855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C855" s="14"/>
-      <c r="E855" s="15"/>
+      <c r="C855" s="12"/>
+      <c r="E855" s="13"/>
     </row>
     <row r="856" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C856" s="14"/>
-      <c r="E856" s="15"/>
+      <c r="C856" s="12"/>
+      <c r="E856" s="13"/>
     </row>
     <row r="857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C857" s="14"/>
-      <c r="E857" s="15"/>
+      <c r="C857" s="12"/>
+      <c r="E857" s="13"/>
     </row>
     <row r="858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C858" s="14"/>
-      <c r="E858" s="15"/>
+      <c r="C858" s="12"/>
+      <c r="E858" s="13"/>
     </row>
     <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C859" s="14"/>
-      <c r="E859" s="15"/>
+      <c r="C859" s="12"/>
+      <c r="E859" s="13"/>
     </row>
     <row r="860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C860" s="14"/>
-      <c r="E860" s="15"/>
+      <c r="C860" s="12"/>
+      <c r="E860" s="13"/>
     </row>
     <row r="861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C861" s="14"/>
-      <c r="E861" s="15"/>
+      <c r="C861" s="12"/>
+      <c r="E861" s="13"/>
     </row>
     <row r="862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C862" s="14"/>
-      <c r="E862" s="15"/>
+      <c r="C862" s="12"/>
+      <c r="E862" s="13"/>
     </row>
     <row r="863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C863" s="14"/>
-      <c r="E863" s="15"/>
+      <c r="C863" s="12"/>
+      <c r="E863" s="13"/>
     </row>
     <row r="864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C864" s="14"/>
-      <c r="E864" s="15"/>
+      <c r="C864" s="12"/>
+      <c r="E864" s="13"/>
     </row>
     <row r="865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C865" s="14"/>
-      <c r="E865" s="15"/>
+      <c r="C865" s="12"/>
+      <c r="E865" s="13"/>
     </row>
     <row r="866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C866" s="14"/>
-      <c r="E866" s="15"/>
+      <c r="C866" s="12"/>
+      <c r="E866" s="13"/>
     </row>
     <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C867" s="14"/>
-      <c r="E867" s="15"/>
+      <c r="C867" s="12"/>
+      <c r="E867" s="13"/>
     </row>
     <row r="868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C868" s="14"/>
-      <c r="E868" s="15"/>
+      <c r="C868" s="12"/>
+      <c r="E868" s="13"/>
     </row>
     <row r="869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C869" s="14"/>
-      <c r="E869" s="15"/>
+      <c r="C869" s="12"/>
+      <c r="E869" s="13"/>
     </row>
     <row r="870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C870" s="14"/>
-      <c r="E870" s="15"/>
+      <c r="C870" s="12"/>
+      <c r="E870" s="13"/>
     </row>
     <row r="871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C871" s="14"/>
-      <c r="E871" s="15"/>
+      <c r="C871" s="12"/>
+      <c r="E871" s="13"/>
     </row>
     <row r="872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C872" s="14"/>
-      <c r="E872" s="15"/>
+      <c r="C872" s="12"/>
+      <c r="E872" s="13"/>
     </row>
     <row r="873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C873" s="14"/>
-      <c r="E873" s="15"/>
+      <c r="C873" s="12"/>
+      <c r="E873" s="13"/>
     </row>
     <row r="874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C874" s="14"/>
-      <c r="E874" s="15"/>
+      <c r="C874" s="12"/>
+      <c r="E874" s="13"/>
     </row>
     <row r="875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C875" s="14"/>
-      <c r="E875" s="15"/>
+      <c r="C875" s="12"/>
+      <c r="E875" s="13"/>
     </row>
     <row r="876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C876" s="14"/>
-      <c r="E876" s="15"/>
+      <c r="C876" s="12"/>
+      <c r="E876" s="13"/>
     </row>
     <row r="877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C877" s="14"/>
-      <c r="E877" s="15"/>
+      <c r="C877" s="12"/>
+      <c r="E877" s="13"/>
     </row>
     <row r="878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C878" s="14"/>
-      <c r="E878" s="15"/>
+      <c r="C878" s="12"/>
+      <c r="E878" s="13"/>
     </row>
     <row r="879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C879" s="14"/>
-      <c r="E879" s="15"/>
+      <c r="C879" s="12"/>
+      <c r="E879" s="13"/>
     </row>
     <row r="880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C880" s="14"/>
-      <c r="E880" s="15"/>
+      <c r="C880" s="12"/>
+      <c r="E880" s="13"/>
     </row>
     <row r="881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C881" s="14"/>
-      <c r="E881" s="15"/>
+      <c r="C881" s="12"/>
+      <c r="E881" s="13"/>
     </row>
     <row r="882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C882" s="14"/>
-      <c r="E882" s="15"/>
+      <c r="C882" s="12"/>
+      <c r="E882" s="13"/>
     </row>
     <row r="883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C883" s="14"/>
-      <c r="E883" s="15"/>
+      <c r="C883" s="12"/>
+      <c r="E883" s="13"/>
     </row>
     <row r="884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C884" s="14"/>
-      <c r="E884" s="15"/>
+      <c r="C884" s="12"/>
+      <c r="E884" s="13"/>
     </row>
     <row r="885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C885" s="14"/>
-      <c r="E885" s="15"/>
+      <c r="C885" s="12"/>
+      <c r="E885" s="13"/>
     </row>
     <row r="886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C886" s="14"/>
-      <c r="E886" s="15"/>
+      <c r="C886" s="12"/>
+      <c r="E886" s="13"/>
     </row>
     <row r="887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C887" s="14"/>
-      <c r="E887" s="15"/>
+      <c r="C887" s="12"/>
+      <c r="E887" s="13"/>
     </row>
     <row r="888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C888" s="14"/>
-      <c r="E888" s="15"/>
+      <c r="C888" s="12"/>
+      <c r="E888" s="13"/>
     </row>
     <row r="889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C889" s="14"/>
-      <c r="E889" s="15"/>
+      <c r="C889" s="12"/>
+      <c r="E889" s="13"/>
     </row>
     <row r="890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C890" s="14"/>
-      <c r="E890" s="15"/>
+      <c r="C890" s="12"/>
+      <c r="E890" s="13"/>
     </row>
     <row r="891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C891" s="14"/>
-      <c r="E891" s="15"/>
+      <c r="C891" s="12"/>
+      <c r="E891" s="13"/>
     </row>
     <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C892" s="14"/>
-      <c r="E892" s="15"/>
+      <c r="C892" s="12"/>
+      <c r="E892" s="13"/>
     </row>
     <row r="893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C893" s="14"/>
-      <c r="E893" s="15"/>
+      <c r="C893" s="12"/>
+      <c r="E893" s="13"/>
     </row>
     <row r="894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C894" s="14"/>
-      <c r="E894" s="15"/>
+      <c r="C894" s="12"/>
+      <c r="E894" s="13"/>
     </row>
     <row r="895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C895" s="14"/>
-      <c r="E895" s="15"/>
+      <c r="C895" s="12"/>
+      <c r="E895" s="13"/>
     </row>
     <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C896" s="14"/>
-      <c r="E896" s="15"/>
+      <c r="C896" s="12"/>
+      <c r="E896" s="13"/>
     </row>
     <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C897" s="14"/>
-      <c r="E897" s="15"/>
+      <c r="C897" s="12"/>
+      <c r="E897" s="13"/>
     </row>
     <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C898" s="14"/>
-      <c r="E898" s="15"/>
+      <c r="C898" s="12"/>
+      <c r="E898" s="13"/>
     </row>
     <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C899" s="14"/>
-      <c r="E899" s="15"/>
+      <c r="C899" s="12"/>
+      <c r="E899" s="13"/>
     </row>
     <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C900" s="14"/>
-      <c r="E900" s="15"/>
+      <c r="C900" s="12"/>
+      <c r="E900" s="13"/>
     </row>
     <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C901" s="14"/>
-      <c r="E901" s="15"/>
+      <c r="C901" s="12"/>
+      <c r="E901" s="13"/>
     </row>
     <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C902" s="14"/>
-      <c r="E902" s="15"/>
+      <c r="C902" s="12"/>
+      <c r="E902" s="13"/>
     </row>
     <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C903" s="14"/>
-      <c r="E903" s="15"/>
+      <c r="C903" s="12"/>
+      <c r="E903" s="13"/>
     </row>
     <row r="904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C904" s="14"/>
-      <c r="E904" s="15"/>
+      <c r="C904" s="12"/>
+      <c r="E904" s="13"/>
     </row>
     <row r="905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C905" s="14"/>
-      <c r="E905" s="15"/>
+      <c r="C905" s="12"/>
+      <c r="E905" s="13"/>
     </row>
     <row r="906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C906" s="14"/>
-      <c r="E906" s="15"/>
+      <c r="C906" s="12"/>
+      <c r="E906" s="13"/>
     </row>
     <row r="907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C907" s="14"/>
-      <c r="E907" s="15"/>
+      <c r="C907" s="12"/>
+      <c r="E907" s="13"/>
     </row>
     <row r="908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C908" s="14"/>
-      <c r="E908" s="15"/>
+      <c r="C908" s="12"/>
+      <c r="E908" s="13"/>
     </row>
     <row r="909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C909" s="14"/>
-      <c r="E909" s="15"/>
+      <c r="C909" s="12"/>
+      <c r="E909" s="13"/>
     </row>
     <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C910" s="14"/>
-      <c r="E910" s="15"/>
+      <c r="C910" s="12"/>
+      <c r="E910" s="13"/>
     </row>
     <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C911" s="14"/>
-      <c r="E911" s="15"/>
+      <c r="C911" s="12"/>
+      <c r="E911" s="13"/>
     </row>
     <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C912" s="14"/>
-      <c r="E912" s="15"/>
+      <c r="C912" s="12"/>
+      <c r="E912" s="13"/>
     </row>
     <row r="913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C913" s="14"/>
-      <c r="E913" s="15"/>
+      <c r="C913" s="12"/>
+      <c r="E913" s="13"/>
     </row>
     <row r="914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C914" s="14"/>
-      <c r="E914" s="15"/>
+      <c r="C914" s="12"/>
+      <c r="E914" s="13"/>
     </row>
     <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C915" s="14"/>
-      <c r="E915" s="15"/>
+      <c r="C915" s="12"/>
+      <c r="E915" s="13"/>
     </row>
     <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C916" s="14"/>
-      <c r="E916" s="15"/>
+      <c r="C916" s="12"/>
+      <c r="E916" s="13"/>
     </row>
     <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C917" s="14"/>
-      <c r="E917" s="15"/>
+      <c r="C917" s="12"/>
+      <c r="E917" s="13"/>
     </row>
     <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C918" s="14"/>
-      <c r="E918" s="15"/>
+      <c r="C918" s="12"/>
+      <c r="E918" s="13"/>
     </row>
     <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C919" s="14"/>
-      <c r="E919" s="15"/>
+      <c r="C919" s="12"/>
+      <c r="E919" s="13"/>
     </row>
     <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C920" s="14"/>
-      <c r="E920" s="15"/>
+      <c r="C920" s="12"/>
+      <c r="E920" s="13"/>
     </row>
     <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C921" s="14"/>
-      <c r="E921" s="15"/>
+      <c r="C921" s="12"/>
+      <c r="E921" s="13"/>
     </row>
     <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C922" s="14"/>
-      <c r="E922" s="15"/>
+      <c r="C922" s="12"/>
+      <c r="E922" s="13"/>
     </row>
     <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C923" s="14"/>
-      <c r="E923" s="15"/>
+      <c r="C923" s="12"/>
+      <c r="E923" s="13"/>
     </row>
     <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C924" s="14"/>
-      <c r="E924" s="15"/>
+      <c r="C924" s="12"/>
+      <c r="E924" s="13"/>
     </row>
     <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C925" s="14"/>
-      <c r="E925" s="15"/>
+      <c r="C925" s="12"/>
+      <c r="E925" s="13"/>
     </row>
     <row r="926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C926" s="14"/>
-      <c r="E926" s="15"/>
+      <c r="C926" s="12"/>
+      <c r="E926" s="13"/>
     </row>
     <row r="927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C927" s="14"/>
-      <c r="E927" s="15"/>
+      <c r="C927" s="12"/>
+      <c r="E927" s="13"/>
     </row>
     <row r="928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C928" s="14"/>
-      <c r="E928" s="15"/>
+      <c r="C928" s="12"/>
+      <c r="E928" s="13"/>
     </row>
     <row r="929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C929" s="14"/>
-      <c r="E929" s="15"/>
+      <c r="C929" s="12"/>
+      <c r="E929" s="13"/>
     </row>
     <row r="930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C930" s="14"/>
-      <c r="E930" s="15"/>
+      <c r="C930" s="12"/>
+      <c r="E930" s="13"/>
     </row>
     <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C931" s="14"/>
-      <c r="E931" s="15"/>
+      <c r="C931" s="12"/>
+      <c r="E931" s="13"/>
     </row>
     <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C932" s="14"/>
-      <c r="E932" s="15"/>
+      <c r="C932" s="12"/>
+      <c r="E932" s="13"/>
     </row>
     <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C933" s="14"/>
-      <c r="E933" s="15"/>
+      <c r="C933" s="12"/>
+      <c r="E933" s="13"/>
     </row>
     <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C934" s="14"/>
-      <c r="E934" s="15"/>
+      <c r="C934" s="12"/>
+      <c r="E934" s="13"/>
     </row>
     <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C935" s="14"/>
-      <c r="E935" s="15"/>
+      <c r="C935" s="12"/>
+      <c r="E935" s="13"/>
     </row>
     <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C936" s="14"/>
-      <c r="E936" s="15"/>
+      <c r="C936" s="12"/>
+      <c r="E936" s="13"/>
     </row>
     <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C937" s="14"/>
-      <c r="E937" s="15"/>
+      <c r="C937" s="12"/>
+      <c r="E937" s="13"/>
     </row>
     <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C938" s="14"/>
-      <c r="E938" s="15"/>
+      <c r="C938" s="12"/>
+      <c r="E938" s="13"/>
     </row>
     <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C939" s="14"/>
-      <c r="E939" s="15"/>
+      <c r="C939" s="12"/>
+      <c r="E939" s="13"/>
     </row>
     <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C940" s="14"/>
-      <c r="E940" s="15"/>
+      <c r="C940" s="12"/>
+      <c r="E940" s="13"/>
     </row>
     <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C941" s="14"/>
-      <c r="E941" s="15"/>
+      <c r="C941" s="12"/>
+      <c r="E941" s="13"/>
     </row>
     <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C942" s="14"/>
-      <c r="E942" s="15"/>
+      <c r="C942" s="12"/>
+      <c r="E942" s="13"/>
     </row>
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C943" s="14"/>
-      <c r="E943" s="15"/>
+      <c r="C943" s="12"/>
+      <c r="E943" s="13"/>
     </row>
     <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C944" s="14"/>
-      <c r="E944" s="15"/>
+      <c r="C944" s="12"/>
+      <c r="E944" s="13"/>
     </row>
     <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C945" s="14"/>
-      <c r="E945" s="15"/>
+      <c r="C945" s="12"/>
+      <c r="E945" s="13"/>
     </row>
     <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C946" s="14"/>
-      <c r="E946" s="15"/>
+      <c r="C946" s="12"/>
+      <c r="E946" s="13"/>
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C947" s="14"/>
-      <c r="E947" s="15"/>
+      <c r="C947" s="12"/>
+      <c r="E947" s="13"/>
     </row>
     <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C948" s="14"/>
-      <c r="E948" s="15"/>
+      <c r="C948" s="12"/>
+      <c r="E948" s="13"/>
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C949" s="14"/>
-      <c r="E949" s="15"/>
+      <c r="C949" s="12"/>
+      <c r="E949" s="13"/>
     </row>
     <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C950" s="14"/>
-      <c r="E950" s="15"/>
+      <c r="C950" s="12"/>
+      <c r="E950" s="13"/>
     </row>
     <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C951" s="14"/>
-      <c r="E951" s="15"/>
+      <c r="C951" s="12"/>
+      <c r="E951" s="13"/>
     </row>
     <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C952" s="14"/>
-      <c r="E952" s="15"/>
+      <c r="C952" s="12"/>
+      <c r="E952" s="13"/>
     </row>
     <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C953" s="14"/>
-      <c r="E953" s="15"/>
+      <c r="C953" s="12"/>
+      <c r="E953" s="13"/>
     </row>
     <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C954" s="14"/>
-      <c r="E954" s="15"/>
+      <c r="C954" s="12"/>
+      <c r="E954" s="13"/>
     </row>
     <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C955" s="14"/>
-      <c r="E955" s="15"/>
+      <c r="C955" s="12"/>
+      <c r="E955" s="13"/>
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C956" s="14"/>
-      <c r="E956" s="15"/>
+      <c r="C956" s="12"/>
+      <c r="E956" s="13"/>
     </row>
     <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C957" s="14"/>
-      <c r="E957" s="15"/>
+      <c r="C957" s="12"/>
+      <c r="E957" s="13"/>
     </row>
     <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C958" s="14"/>
-      <c r="E958" s="15"/>
+      <c r="C958" s="12"/>
+      <c r="E958" s="13"/>
     </row>
     <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C959" s="14"/>
-      <c r="E959" s="15"/>
+      <c r="C959" s="12"/>
+      <c r="E959" s="13"/>
     </row>
     <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C960" s="14"/>
-      <c r="E960" s="15"/>
+      <c r="C960" s="12"/>
+      <c r="E960" s="13"/>
     </row>
     <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C961" s="14"/>
-      <c r="E961" s="15"/>
+      <c r="C961" s="12"/>
+      <c r="E961" s="13"/>
     </row>
     <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C962" s="14"/>
-      <c r="E962" s="15"/>
+      <c r="C962" s="12"/>
+      <c r="E962" s="13"/>
     </row>
     <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C963" s="14"/>
-      <c r="E963" s="15"/>
+      <c r="C963" s="12"/>
+      <c r="E963" s="13"/>
     </row>
     <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C964" s="14"/>
-      <c r="E964" s="15"/>
+      <c r="C964" s="12"/>
+      <c r="E964" s="13"/>
     </row>
     <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C965" s="14"/>
-      <c r="E965" s="15"/>
+      <c r="C965" s="12"/>
+      <c r="E965" s="13"/>
     </row>
     <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C966" s="14"/>
-      <c r="E966" s="15"/>
+      <c r="C966" s="12"/>
+      <c r="E966" s="13"/>
     </row>
     <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C967" s="14"/>
-      <c r="E967" s="15"/>
+      <c r="C967" s="12"/>
+      <c r="E967" s="13"/>
     </row>
     <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C968" s="14"/>
-      <c r="E968" s="15"/>
+      <c r="C968" s="12"/>
+      <c r="E968" s="13"/>
     </row>
     <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C969" s="14"/>
-      <c r="E969" s="15"/>
+      <c r="C969" s="12"/>
+      <c r="E969" s="13"/>
     </row>
     <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C970" s="14"/>
-      <c r="E970" s="15"/>
+      <c r="C970" s="12"/>
+      <c r="E970" s="13"/>
     </row>
     <row r="971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C971" s="14"/>
-      <c r="E971" s="15"/>
+      <c r="C971" s="12"/>
+      <c r="E971" s="13"/>
     </row>
     <row r="972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C972" s="14"/>
-      <c r="E972" s="15"/>
+      <c r="C972" s="12"/>
+      <c r="E972" s="13"/>
     </row>
     <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C973" s="14"/>
-      <c r="E973" s="15"/>
+      <c r="C973" s="12"/>
+      <c r="E973" s="13"/>
     </row>
     <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C974" s="14"/>
-      <c r="E974" s="15"/>
+      <c r="C974" s="12"/>
+      <c r="E974" s="13"/>
     </row>
     <row r="975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C975" s="14"/>
-      <c r="E975" s="15"/>
+      <c r="C975" s="12"/>
+      <c r="E975" s="13"/>
     </row>
     <row r="976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C976" s="14"/>
-      <c r="E976" s="15"/>
+      <c r="C976" s="12"/>
+      <c r="E976" s="13"/>
     </row>
     <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C977" s="14"/>
-      <c r="E977" s="15"/>
+      <c r="C977" s="12"/>
+      <c r="E977" s="13"/>
     </row>
     <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C978" s="14"/>
-      <c r="E978" s="15"/>
+      <c r="C978" s="12"/>
+      <c r="E978" s="13"/>
     </row>
     <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C979" s="14"/>
-      <c r="E979" s="15"/>
+      <c r="C979" s="12"/>
+      <c r="E979" s="13"/>
     </row>
     <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C980" s="14"/>
-      <c r="E980" s="15"/>
+      <c r="C980" s="12"/>
+      <c r="E980" s="13"/>
     </row>
     <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C981" s="14"/>
-      <c r="E981" s="15"/>
+      <c r="C981" s="12"/>
+      <c r="E981" s="13"/>
     </row>
     <row r="982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C982" s="14"/>
-      <c r="E982" s="15"/>
+      <c r="C982" s="12"/>
+      <c r="E982" s="13"/>
     </row>
     <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C983" s="14"/>
-      <c r="E983" s="15"/>
+      <c r="C983" s="12"/>
+      <c r="E983" s="13"/>
     </row>
     <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C984" s="14"/>
-      <c r="E984" s="15"/>
+      <c r="C984" s="12"/>
+      <c r="E984" s="13"/>
     </row>
     <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C985" s="14"/>
-      <c r="E985" s="15"/>
+      <c r="C985" s="12"/>
+      <c r="E985" s="13"/>
     </row>
     <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C986" s="14"/>
-      <c r="E986" s="15"/>
+      <c r="C986" s="12"/>
+      <c r="E986" s="13"/>
     </row>
     <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C987" s="14"/>
-      <c r="E987" s="15"/>
+      <c r="C987" s="12"/>
+      <c r="E987" s="13"/>
     </row>
     <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C988" s="14"/>
-      <c r="E988" s="15"/>
+      <c r="C988" s="12"/>
+      <c r="E988" s="13"/>
     </row>
     <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C989" s="14"/>
-      <c r="E989" s="15"/>
+      <c r="C989" s="12"/>
+      <c r="E989" s="13"/>
     </row>
     <row r="990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C990" s="14"/>
-      <c r="E990" s="15"/>
+      <c r="C990" s="12"/>
+      <c r="E990" s="13"/>
     </row>
     <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C991" s="14"/>
-      <c r="E991" s="15"/>
+      <c r="C991" s="12"/>
+      <c r="E991" s="13"/>
     </row>
     <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C992" s="14"/>
-      <c r="E992" s="15"/>
+      <c r="C992" s="12"/>
+      <c r="E992" s="13"/>
     </row>
     <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C993" s="14"/>
-      <c r="E993" s="15"/>
+      <c r="C993" s="12"/>
+      <c r="E993" s="13"/>
     </row>
     <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C994" s="14"/>
-      <c r="E994" s="15"/>
+      <c r="C994" s="12"/>
+      <c r="E994" s="13"/>
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C995" s="14"/>
-      <c r="E995" s="15"/>
+      <c r="C995" s="12"/>
+      <c r="E995" s="13"/>
     </row>
     <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C996" s="14"/>
-      <c r="E996" s="15"/>
+      <c r="C996" s="12"/>
+      <c r="E996" s="13"/>
     </row>
     <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C997" s="14"/>
-      <c r="E997" s="15"/>
+      <c r="C997" s="12"/>
+      <c r="E997" s="13"/>
     </row>
     <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C998" s="14"/>
-      <c r="E998" s="15"/>
+      <c r="C998" s="12"/>
+      <c r="E998" s="13"/>
     </row>
     <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C999" s="14"/>
-      <c r="E999" s="15"/>
+      <c r="C999" s="12"/>
+      <c r="E999" s="13"/>
     </row>
     <row r="1000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1000" s="14"/>
-      <c r="E1000" s="15"/>
+      <c r="C1000" s="12"/>
+      <c r="E1000" s="13"/>
     </row>
     <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1001" s="14"/>
-      <c r="E1001" s="15"/>
+      <c r="C1001" s="12"/>
+      <c r="E1001" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="contact@fairsharing.or"/>
+    <hyperlink ref="B2" r:id="rId1" display="The FAIRsharing Team, contact@fairsharing.org"/>
     <hyperlink ref="B9" r:id="rId2" display="contact@fairsharing.org"/>
     <hyperlink ref="B10" r:id="rId3" location="label" display="http://www.w3.org/2000/01/rdf-schema#label"/>
     <hyperlink ref="B11" r:id="rId4" display="http://purl.obolibrary.org/obo/IAO_0000115"/>
-    <hyperlink ref="B18" r:id="rId5" display="https://github.com/FAIRsharing/subject-ontology/raw/master/releases/SRAO.owl"/>
+    <hyperlink ref="B12" r:id="rId5" display="http://www.fairsharing.org/ontology/domain/DRAO"/>
+    <hyperlink ref="B18" r:id="rId6" display="https://github.com/FAIRsharing/subject-ontology/raw/master/releases/SRAO.owl"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
